--- a/常见的系统(设备)默认口令收集.xlsx
+++ b/常见的系统(设备)默认口令收集.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="598" uniqueCount="273">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="616" uniqueCount="283">
   <si>
     <t>序号</t>
   </si>
@@ -846,6 +846,36 @@
   </si>
   <si>
     <t>来源：https://support.huawei.com/enterprise/zh/doc/EDOC1100138471/e52be30</t>
+  </si>
+  <si>
+    <t>150</t>
+  </si>
+  <si>
+    <t>索贝融媒体</t>
+  </si>
+  <si>
+    <t>sobey</t>
+  </si>
+  <si>
+    <t>Sobeyhive-2016</t>
+  </si>
+  <si>
+    <t>来源：https://mp.weixin.qq.com/s/kji0zlLFbK2xtnyjmDTG1Q</t>
+  </si>
+  <si>
+    <t>151</t>
+  </si>
+  <si>
+    <t>152</t>
+  </si>
+  <si>
+    <t>云祺容灾备份系统</t>
+  </si>
+  <si>
+    <t>Admin@3R</t>
+  </si>
+  <si>
+    <t>来源：https://www.vinchin.cn/res/pdf/vinchin_backup_user_guide_v6.0.pdf</t>
   </si>
 </sst>
 </file>
@@ -1509,7 +1539,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1522,14 +1552,8 @@
     <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -2062,10 +2086,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G150"/>
+  <dimension ref="A1:G153"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A144" workbookViewId="0">
-      <selection activeCell="G141" sqref="G141"/>
+    <sheetView tabSelected="1" topLeftCell="A138" workbookViewId="0">
+      <selection activeCell="E156" sqref="E156"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="12" outlineLevelCol="6"/>
@@ -2084,2907 +2108,2969 @@
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="3" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="2" ht="15" spans="1:7">
-      <c r="A2" s="5">
+      <c r="A2" s="4">
         <v>1</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="F2" s="6" t="s">
+      <c r="E2" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="G2" s="7"/>
+      <c r="G2" s="5"/>
     </row>
     <row r="3" ht="15" spans="1:7">
-      <c r="A3" s="5">
+      <c r="A3" s="4">
         <v>2</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="D3" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="E3" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="F3" s="7"/>
-      <c r="G3" s="7"/>
+      <c r="E3" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5"/>
     </row>
     <row r="4" ht="15" spans="1:7">
-      <c r="A4" s="5">
+      <c r="A4" s="4">
         <v>3</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E4" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="F4" s="7"/>
-      <c r="G4" s="7"/>
+      <c r="C4" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F4" s="5"/>
+      <c r="G4" s="5"/>
     </row>
     <row r="5" ht="15" spans="1:7">
-      <c r="A5" s="5">
+      <c r="A5" s="4">
         <v>4</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="C5" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="D5" s="6" t="s">
+      <c r="C5" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="E5" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="F5" s="7"/>
-      <c r="G5" s="7"/>
+      <c r="E5" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F5" s="5"/>
+      <c r="G5" s="5"/>
     </row>
     <row r="6" ht="15" spans="1:7">
-      <c r="A6" s="5">
+      <c r="A6" s="4">
         <v>5</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="B6" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="C6" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="D6" s="6" t="s">
+      <c r="C6" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="E6" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="F6" s="7"/>
-      <c r="G6" s="7"/>
+      <c r="E6" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F6" s="5"/>
+      <c r="G6" s="5"/>
     </row>
     <row r="7" ht="15" spans="1:7">
-      <c r="A7" s="5">
+      <c r="A7" s="4">
         <v>6</v>
       </c>
-      <c r="B7" s="6" t="s">
+      <c r="B7" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="C7" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="D7" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E7" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="F7" s="7"/>
-      <c r="G7" s="7"/>
+      <c r="C7" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F7" s="5"/>
+      <c r="G7" s="5"/>
     </row>
     <row r="8" ht="15" spans="1:7">
-      <c r="A8" s="5">
+      <c r="A8" s="4">
         <v>7</v>
       </c>
-      <c r="B8" s="6" t="s">
+      <c r="B8" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="C8" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="D8" s="7">
+      <c r="C8" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D8" s="5">
         <v>12345</v>
       </c>
-      <c r="E8" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="F8" s="7"/>
-      <c r="G8" s="7"/>
+      <c r="E8" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F8" s="5"/>
+      <c r="G8" s="5"/>
     </row>
     <row r="9" ht="15" spans="1:7">
-      <c r="A9" s="5">
+      <c r="A9" s="4">
         <v>8</v>
       </c>
-      <c r="B9" s="6" t="s">
+      <c r="B9" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="C9" s="6" t="s">
+      <c r="C9" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="D9" s="6" t="s">
+      <c r="D9" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="E9" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="F9" s="7"/>
-      <c r="G9" s="7"/>
+      <c r="E9" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F9" s="5"/>
+      <c r="G9" s="5"/>
     </row>
     <row r="10" ht="15" spans="1:7">
-      <c r="A10" s="5">
-        <v>9</v>
-      </c>
-      <c r="B10" s="6" t="s">
+      <c r="A10" s="4">
+        <v>9</v>
+      </c>
+      <c r="B10" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="C10" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="D10" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E10" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="F10" s="7"/>
-      <c r="G10" s="7"/>
+      <c r="C10" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F10" s="5"/>
+      <c r="G10" s="5"/>
     </row>
     <row r="11" ht="15" spans="1:7">
-      <c r="A11" s="5">
+      <c r="A11" s="4">
         <v>10</v>
       </c>
-      <c r="B11" s="6" t="s">
+      <c r="B11" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="C11" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="D11" s="6" t="s">
+      <c r="C11" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D11" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="E11" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="F11" s="7"/>
-      <c r="G11" s="7"/>
+      <c r="E11" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F11" s="5"/>
+      <c r="G11" s="5"/>
     </row>
     <row r="12" ht="15" spans="1:7">
-      <c r="A12" s="5">
+      <c r="A12" s="4">
         <v>11</v>
       </c>
-      <c r="B12" s="6" t="s">
+      <c r="B12" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="C12" s="6" t="s">
+      <c r="C12" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="D12" s="6" t="s">
+      <c r="D12" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="E12" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="F12" s="7"/>
-      <c r="G12" s="7"/>
+      <c r="E12" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F12" s="5"/>
+      <c r="G12" s="5"/>
     </row>
     <row r="13" ht="15" spans="1:7">
-      <c r="A13" s="5">
+      <c r="A13" s="4">
         <v>12</v>
       </c>
-      <c r="B13" s="6" t="s">
+      <c r="B13" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="C13" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="D13" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E13" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="F13" s="7"/>
-      <c r="G13" s="7"/>
+      <c r="C13" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F13" s="5"/>
+      <c r="G13" s="5"/>
     </row>
     <row r="14" ht="15" spans="1:7">
-      <c r="A14" s="5">
+      <c r="A14" s="4">
         <v>13</v>
       </c>
-      <c r="B14" s="6" t="s">
+      <c r="B14" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="C14" s="6" t="s">
+      <c r="C14" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="D14" s="6" t="s">
+      <c r="D14" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="E14" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="F14" s="7"/>
-      <c r="G14" s="7"/>
+      <c r="E14" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F14" s="5"/>
+      <c r="G14" s="5"/>
     </row>
     <row r="15" ht="15" spans="1:7">
-      <c r="A15" s="5">
+      <c r="A15" s="4">
         <v>14</v>
       </c>
-      <c r="B15" s="6" t="s">
+      <c r="B15" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="C15" s="6" t="s">
+      <c r="C15" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="D15" s="6" t="s">
+      <c r="D15" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="E15" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="F15" s="7"/>
-      <c r="G15" s="7"/>
+      <c r="E15" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F15" s="5"/>
+      <c r="G15" s="5"/>
     </row>
     <row r="16" ht="15" spans="1:7">
-      <c r="A16" s="5">
-        <v>15</v>
-      </c>
-      <c r="B16" s="6" t="s">
+      <c r="A16" s="4">
+        <v>15</v>
+      </c>
+      <c r="B16" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="C16" s="6" t="s">
+      <c r="C16" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="D16" s="6" t="s">
+      <c r="D16" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="E16" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="F16" s="7"/>
-      <c r="G16" s="7"/>
+      <c r="E16" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F16" s="5"/>
+      <c r="G16" s="5"/>
     </row>
     <row r="17" ht="15" spans="1:7">
-      <c r="A17" s="5">
+      <c r="A17" s="4">
         <v>16</v>
       </c>
-      <c r="B17" s="6" t="s">
+      <c r="B17" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="C17" s="6" t="s">
+      <c r="C17" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="D17" s="6" t="s">
+      <c r="D17" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="E17" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="F17" s="7"/>
-      <c r="G17" s="7"/>
+      <c r="E17" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F17" s="5"/>
+      <c r="G17" s="5"/>
     </row>
     <row r="18" ht="15" spans="1:7">
-      <c r="A18" s="5">
+      <c r="A18" s="4">
         <v>17</v>
       </c>
-      <c r="B18" s="6" t="s">
+      <c r="B18" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="C18" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="D18" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E18" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="F18" s="7"/>
-      <c r="G18" s="7"/>
+      <c r="C18" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E18" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F18" s="5"/>
+      <c r="G18" s="5"/>
     </row>
     <row r="19" ht="15" spans="1:7">
-      <c r="A19" s="5">
+      <c r="A19" s="4">
         <v>18</v>
       </c>
-      <c r="B19" s="6" t="s">
+      <c r="B19" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="C19" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="D19" s="6" t="s">
+      <c r="C19" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D19" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="E19" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="F19" s="7"/>
-      <c r="G19" s="7"/>
+      <c r="E19" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F19" s="5"/>
+      <c r="G19" s="5"/>
     </row>
     <row r="20" ht="15" spans="1:7">
-      <c r="A20" s="5">
+      <c r="A20" s="4">
         <v>19</v>
       </c>
-      <c r="B20" s="6" t="s">
+      <c r="B20" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="C20" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="D20" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E20" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="F20" s="7"/>
-      <c r="G20" s="7"/>
+      <c r="C20" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E20" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F20" s="5"/>
+      <c r="G20" s="5"/>
     </row>
     <row r="21" ht="15" spans="1:7">
-      <c r="A21" s="5">
+      <c r="A21" s="4">
         <v>20</v>
       </c>
-      <c r="B21" s="6" t="s">
+      <c r="B21" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="C21" s="6" t="s">
+      <c r="C21" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="D21" s="6" t="s">
+      <c r="D21" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="E21" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="F21" s="7"/>
-      <c r="G21" s="7"/>
+      <c r="E21" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F21" s="5"/>
+      <c r="G21" s="5"/>
     </row>
     <row r="22" ht="15" spans="1:7">
-      <c r="A22" s="5">
+      <c r="A22" s="4">
         <v>21</v>
       </c>
-      <c r="B22" s="6" t="s">
+      <c r="B22" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="C22" s="6" t="s">
+      <c r="C22" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="D22" s="6" t="s">
+      <c r="D22" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="E22" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="F22" s="7"/>
-      <c r="G22" s="7"/>
+      <c r="E22" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F22" s="5"/>
+      <c r="G22" s="5"/>
     </row>
     <row r="23" ht="15" spans="1:7">
-      <c r="A23" s="5">
+      <c r="A23" s="4">
         <v>22</v>
       </c>
-      <c r="B23" s="6" t="s">
+      <c r="B23" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="C23" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="D23" s="6" t="s">
+      <c r="C23" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D23" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="E23" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="F23" s="7"/>
-      <c r="G23" s="7"/>
+      <c r="E23" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F23" s="5"/>
+      <c r="G23" s="5"/>
     </row>
     <row r="24" ht="15" spans="1:7">
-      <c r="A24" s="5">
+      <c r="A24" s="4">
         <v>23</v>
       </c>
-      <c r="B24" s="6" t="s">
+      <c r="B24" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="C24" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="D24" s="6" t="s">
+      <c r="C24" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D24" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="E24" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="F24" s="7"/>
-      <c r="G24" s="7"/>
+      <c r="E24" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F24" s="5"/>
+      <c r="G24" s="5"/>
     </row>
     <row r="25" ht="15" spans="1:7">
-      <c r="A25" s="5">
+      <c r="A25" s="4">
         <v>24</v>
       </c>
-      <c r="B25" s="6" t="s">
+      <c r="B25" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="C25" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="D25" s="6" t="s">
+      <c r="C25" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D25" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="E25" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="F25" s="7"/>
-      <c r="G25" s="7"/>
+      <c r="E25" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F25" s="5"/>
+      <c r="G25" s="5"/>
     </row>
     <row r="26" ht="15" spans="1:7">
-      <c r="A26" s="5">
+      <c r="A26" s="4">
         <v>25</v>
       </c>
-      <c r="B26" s="6" t="s">
+      <c r="B26" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="C26" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="D26" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E26" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="F26" s="7"/>
-      <c r="G26" s="7"/>
+      <c r="C26" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D26" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E26" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F26" s="5"/>
+      <c r="G26" s="5"/>
     </row>
     <row r="27" ht="15" spans="1:7">
-      <c r="A27" s="5">
+      <c r="A27" s="4">
         <v>26</v>
       </c>
-      <c r="B27" s="6" t="s">
+      <c r="B27" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="C27" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="D27" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E27" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="F27" s="7"/>
-      <c r="G27" s="7"/>
+      <c r="C27" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D27" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E27" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F27" s="5"/>
+      <c r="G27" s="5"/>
     </row>
     <row r="28" ht="15" spans="1:7">
-      <c r="A28" s="5">
+      <c r="A28" s="4">
         <v>27</v>
       </c>
-      <c r="B28" s="6" t="s">
+      <c r="B28" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="C28" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="D28" s="6" t="s">
+      <c r="C28" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D28" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="E28" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="F28" s="7"/>
-      <c r="G28" s="7"/>
+      <c r="E28" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F28" s="5"/>
+      <c r="G28" s="5"/>
     </row>
     <row r="29" ht="15" spans="1:7">
-      <c r="A29" s="5">
+      <c r="A29" s="4">
         <v>28</v>
       </c>
-      <c r="B29" s="6" t="s">
+      <c r="B29" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="C29" s="6" t="s">
+      <c r="C29" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="D29" s="6" t="s">
+      <c r="D29" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="E29" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="F29" s="7"/>
-      <c r="G29" s="6" t="s">
+      <c r="E29" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F29" s="5"/>
+      <c r="G29" s="5" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="30" ht="15" spans="1:7">
-      <c r="A30" s="5">
+      <c r="A30" s="4">
         <v>29</v>
       </c>
-      <c r="B30" s="6" t="s">
+      <c r="B30" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="C30" s="6" t="s">
+      <c r="C30" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="D30" s="6" t="s">
+      <c r="D30" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="E30" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="F30" s="7"/>
-      <c r="G30" s="6" t="s">
+      <c r="E30" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F30" s="5"/>
+      <c r="G30" s="5" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="31" ht="15" spans="1:7">
-      <c r="A31" s="5">
+      <c r="A31" s="4">
         <v>30</v>
       </c>
-      <c r="B31" s="6" t="s">
+      <c r="B31" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="C31" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="D31" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E31" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="F31" s="7"/>
-      <c r="G31" s="7"/>
+      <c r="C31" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D31" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E31" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F31" s="5"/>
+      <c r="G31" s="5"/>
     </row>
     <row r="32" ht="15" spans="1:7">
-      <c r="A32" s="5">
+      <c r="A32" s="4">
         <v>31</v>
       </c>
-      <c r="B32" s="6" t="s">
+      <c r="B32" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="C32" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="D32" s="6" t="s">
+      <c r="C32" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D32" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="E32" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="F32" s="7"/>
-      <c r="G32" s="7"/>
+      <c r="E32" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F32" s="5"/>
+      <c r="G32" s="5"/>
     </row>
     <row r="33" ht="15" spans="1:7">
-      <c r="A33" s="5">
+      <c r="A33" s="4">
         <v>32</v>
       </c>
-      <c r="B33" s="6" t="s">
+      <c r="B33" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="C33" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="D33" s="6" t="s">
+      <c r="C33" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D33" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E33" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="F33" s="7"/>
-      <c r="G33" s="7"/>
+      <c r="E33" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F33" s="5"/>
+      <c r="G33" s="5"/>
     </row>
     <row r="34" ht="15" spans="1:7">
-      <c r="A34" s="5">
+      <c r="A34" s="4">
         <v>33</v>
       </c>
-      <c r="B34" s="6" t="s">
+      <c r="B34" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="C34" s="6" t="s">
+      <c r="C34" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="D34" s="6" t="s">
+      <c r="D34" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="E34" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="F34" s="7"/>
-      <c r="G34" s="7"/>
+      <c r="E34" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F34" s="5"/>
+      <c r="G34" s="5"/>
     </row>
     <row r="35" ht="15" spans="1:7">
-      <c r="A35" s="5">
+      <c r="A35" s="4">
         <v>34</v>
       </c>
-      <c r="B35" s="6" t="s">
+      <c r="B35" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="C35" s="6" t="s">
+      <c r="C35" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="D35" s="6" t="s">
+      <c r="D35" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="E35" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="F35" s="7"/>
-      <c r="G35" s="7"/>
+      <c r="E35" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F35" s="5"/>
+      <c r="G35" s="5"/>
     </row>
     <row r="36" ht="15" spans="1:7">
-      <c r="A36" s="5">
+      <c r="A36" s="4">
         <v>35</v>
       </c>
-      <c r="B36" s="6" t="s">
+      <c r="B36" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="C36" s="6" t="s">
+      <c r="C36" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="D36" s="6" t="s">
+      <c r="D36" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="E36" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="F36" s="7"/>
-      <c r="G36" s="7"/>
+      <c r="E36" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F36" s="5"/>
+      <c r="G36" s="5"/>
     </row>
     <row r="37" ht="15" spans="1:7">
-      <c r="A37" s="5">
+      <c r="A37" s="4">
         <v>36</v>
       </c>
-      <c r="B37" s="6" t="s">
+      <c r="B37" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="C37" s="6" t="s">
+      <c r="C37" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="D37" s="6" t="s">
+      <c r="D37" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="E37" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="F37" s="7"/>
-      <c r="G37" s="7"/>
+      <c r="E37" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F37" s="5"/>
+      <c r="G37" s="5"/>
     </row>
     <row r="38" ht="15" spans="1:7">
-      <c r="A38" s="5">
+      <c r="A38" s="4">
         <v>37</v>
       </c>
-      <c r="B38" s="6" t="s">
+      <c r="B38" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="C38" s="6" t="s">
+      <c r="C38" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="D38" s="6" t="s">
+      <c r="D38" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="E38" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="F38" s="7"/>
-      <c r="G38" s="7"/>
+      <c r="E38" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F38" s="5"/>
+      <c r="G38" s="5"/>
     </row>
     <row r="39" ht="15" spans="1:7">
-      <c r="A39" s="5">
+      <c r="A39" s="4">
         <v>38</v>
       </c>
-      <c r="B39" s="6" t="s">
+      <c r="B39" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="C39" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="D39" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E39" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="F39" s="7"/>
-      <c r="G39" s="7"/>
+      <c r="C39" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D39" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E39" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F39" s="5"/>
+      <c r="G39" s="5"/>
     </row>
     <row r="40" ht="15" spans="1:7">
-      <c r="A40" s="5">
+      <c r="A40" s="4">
         <v>39</v>
       </c>
-      <c r="B40" s="6" t="s">
+      <c r="B40" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="C40" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="D40" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E40" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="F40" s="7"/>
-      <c r="G40" s="7"/>
+      <c r="C40" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D40" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E40" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F40" s="5"/>
+      <c r="G40" s="5"/>
     </row>
     <row r="41" ht="15" spans="1:7">
-      <c r="A41" s="5">
+      <c r="A41" s="4">
         <v>40</v>
       </c>
-      <c r="B41" s="6" t="s">
+      <c r="B41" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="C41" s="6" t="s">
+      <c r="C41" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="D41" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E41" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="F41" s="7"/>
-      <c r="G41" s="7"/>
+      <c r="D41" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E41" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F41" s="5"/>
+      <c r="G41" s="5"/>
     </row>
     <row r="42" ht="15" spans="1:7">
-      <c r="A42" s="5">
+      <c r="A42" s="4">
         <v>41</v>
       </c>
-      <c r="B42" s="6" t="s">
+      <c r="B42" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="C42" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="D42" s="6" t="s">
+      <c r="C42" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D42" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="E42" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="F42" s="7"/>
-      <c r="G42" s="7"/>
+      <c r="E42" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F42" s="5"/>
+      <c r="G42" s="5"/>
     </row>
     <row r="43" ht="15" spans="1:7">
-      <c r="A43" s="5">
+      <c r="A43" s="4">
         <v>42</v>
       </c>
-      <c r="B43" s="6" t="s">
+      <c r="B43" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="C43" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="D43" s="6" t="s">
+      <c r="C43" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D43" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="E43" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="F43" s="7"/>
-      <c r="G43" s="7"/>
+      <c r="E43" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F43" s="5"/>
+      <c r="G43" s="5"/>
     </row>
     <row r="44" ht="15" spans="1:7">
-      <c r="A44" s="5">
+      <c r="A44" s="4">
         <v>43</v>
       </c>
-      <c r="B44" s="6" t="s">
+      <c r="B44" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="C44" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="D44" s="6" t="s">
+      <c r="C44" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D44" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="E44" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="F44" s="7"/>
-      <c r="G44" s="7"/>
+      <c r="E44" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F44" s="5"/>
+      <c r="G44" s="5"/>
     </row>
     <row r="45" ht="15" spans="1:7">
-      <c r="A45" s="5">
+      <c r="A45" s="4">
         <v>44</v>
       </c>
-      <c r="B45" s="6" t="s">
+      <c r="B45" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="C45" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="D45" s="6" t="s">
+      <c r="C45" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D45" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="E45" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="F45" s="7"/>
-      <c r="G45" s="7"/>
+      <c r="E45" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F45" s="5"/>
+      <c r="G45" s="5"/>
     </row>
     <row r="46" ht="15" spans="1:7">
-      <c r="A46" s="5">
+      <c r="A46" s="4">
         <v>45</v>
       </c>
-      <c r="B46" s="6" t="s">
+      <c r="B46" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="C46" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="D46" s="6" t="s">
+      <c r="C46" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D46" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="E46" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="F46" s="7"/>
-      <c r="G46" s="7"/>
+      <c r="E46" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F46" s="5"/>
+      <c r="G46" s="5"/>
     </row>
     <row r="47" ht="15" spans="1:7">
-      <c r="A47" s="5">
+      <c r="A47" s="4">
         <v>46</v>
       </c>
-      <c r="B47" s="6" t="s">
+      <c r="B47" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="C47" s="6" t="s">
+      <c r="C47" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="D47" s="6" t="s">
+      <c r="D47" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="E47" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="F47" s="7"/>
-      <c r="G47" s="7"/>
+      <c r="E47" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F47" s="5"/>
+      <c r="G47" s="5"/>
     </row>
     <row r="48" ht="15" spans="1:7">
-      <c r="A48" s="5">
+      <c r="A48" s="4">
         <v>47</v>
       </c>
-      <c r="B48" s="6" t="s">
+      <c r="B48" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="C48" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="D48" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E48" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="F48" s="7"/>
-      <c r="G48" s="7"/>
+      <c r="C48" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D48" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E48" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F48" s="5"/>
+      <c r="G48" s="5"/>
     </row>
     <row r="49" ht="15" spans="1:7">
-      <c r="A49" s="5">
+      <c r="A49" s="4">
         <v>48</v>
       </c>
-      <c r="B49" s="6" t="s">
+      <c r="B49" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="C49" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="D49" s="6" t="s">
+      <c r="C49" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D49" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="E49" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="F49" s="7"/>
-      <c r="G49" s="7"/>
+      <c r="E49" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F49" s="5"/>
+      <c r="G49" s="5"/>
     </row>
     <row r="50" ht="15" spans="1:7">
-      <c r="A50" s="5">
+      <c r="A50" s="4">
         <v>49</v>
       </c>
-      <c r="B50" s="6" t="s">
+      <c r="B50" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="C50" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="D50" s="6" t="s">
+      <c r="C50" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D50" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="E50" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="F50" s="7"/>
-      <c r="G50" s="7"/>
+      <c r="E50" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F50" s="5"/>
+      <c r="G50" s="5"/>
     </row>
     <row r="51" ht="15" spans="1:7">
-      <c r="A51" s="5">
+      <c r="A51" s="4">
         <v>50</v>
       </c>
-      <c r="B51" s="6" t="s">
+      <c r="B51" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="C51" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="D51" s="7">
+      <c r="C51" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D51" s="5">
         <v>123456</v>
       </c>
-      <c r="E51" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="F51" s="7"/>
-      <c r="G51" s="7"/>
+      <c r="E51" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F51" s="5"/>
+      <c r="G51" s="5"/>
     </row>
     <row r="52" ht="15" spans="1:7">
-      <c r="A52" s="5">
+      <c r="A52" s="4">
         <v>51</v>
       </c>
-      <c r="B52" s="6" t="s">
+      <c r="B52" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="C52" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="D52" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E52" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="F52" s="7"/>
-      <c r="G52" s="7"/>
+      <c r="C52" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D52" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E52" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F52" s="5"/>
+      <c r="G52" s="5"/>
     </row>
     <row r="53" ht="15" spans="1:7">
-      <c r="A53" s="5">
+      <c r="A53" s="4">
         <v>52</v>
       </c>
-      <c r="B53" s="6" t="s">
+      <c r="B53" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="C53" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="D53" s="6" t="s">
+      <c r="C53" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D53" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="E53" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="F53" s="7"/>
-      <c r="G53" s="7"/>
+      <c r="E53" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F53" s="5"/>
+      <c r="G53" s="5"/>
     </row>
     <row r="54" ht="15" spans="1:7">
-      <c r="A54" s="5">
+      <c r="A54" s="4">
         <v>53</v>
       </c>
-      <c r="B54" s="6" t="s">
+      <c r="B54" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="C54" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="D54" s="6" t="s">
+      <c r="C54" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D54" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="E54" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="F54" s="7"/>
-      <c r="G54" s="7"/>
+      <c r="E54" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F54" s="5"/>
+      <c r="G54" s="5"/>
     </row>
     <row r="55" ht="30" spans="1:7">
-      <c r="A55" s="5">
+      <c r="A55" s="4">
         <v>54</v>
       </c>
-      <c r="B55" s="6" t="s">
+      <c r="B55" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="C55" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="D55" s="6" t="s">
+      <c r="C55" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D55" s="5" t="s">
         <v>101</v>
       </c>
-      <c r="E55" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="F55" s="7"/>
-      <c r="G55" s="7"/>
+      <c r="E55" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F55" s="5"/>
+      <c r="G55" s="5"/>
     </row>
     <row r="56" ht="15" spans="1:7">
-      <c r="A56" s="5">
+      <c r="A56" s="4">
         <v>55</v>
       </c>
-      <c r="B56" s="6" t="s">
+      <c r="B56" s="5" t="s">
         <v>102</v>
       </c>
-      <c r="C56" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="D56" s="6" t="s">
+      <c r="C56" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D56" s="5" t="s">
         <v>103</v>
       </c>
-      <c r="E56" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="F56" s="7"/>
-      <c r="G56" s="7"/>
+      <c r="E56" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F56" s="5"/>
+      <c r="G56" s="5"/>
     </row>
     <row r="57" ht="15" spans="1:7">
-      <c r="A57" s="5">
+      <c r="A57" s="4">
         <v>56</v>
       </c>
-      <c r="B57" s="6" t="s">
+      <c r="B57" s="5" t="s">
         <v>104</v>
       </c>
-      <c r="C57" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="D57" s="6" t="s">
+      <c r="C57" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D57" s="5" t="s">
         <v>105</v>
       </c>
-      <c r="E57" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="F57" s="7"/>
-      <c r="G57" s="7"/>
+      <c r="E57" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F57" s="5"/>
+      <c r="G57" s="5"/>
     </row>
     <row r="58" ht="15" spans="1:7">
-      <c r="A58" s="5">
+      <c r="A58" s="4">
         <v>57</v>
       </c>
-      <c r="B58" s="6" t="s">
+      <c r="B58" s="5" t="s">
         <v>106</v>
       </c>
-      <c r="C58" s="6" t="s">
+      <c r="C58" s="5" t="s">
         <v>107</v>
       </c>
-      <c r="D58" s="6" t="s">
+      <c r="D58" s="5" t="s">
         <v>107</v>
       </c>
-      <c r="E58" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="F58" s="7"/>
-      <c r="G58" s="7"/>
+      <c r="E58" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F58" s="5"/>
+      <c r="G58" s="5"/>
     </row>
     <row r="59" ht="15" spans="1:7">
-      <c r="A59" s="5">
+      <c r="A59" s="4">
         <v>58</v>
       </c>
-      <c r="B59" s="6" t="s">
+      <c r="B59" s="5" t="s">
         <v>106</v>
       </c>
-      <c r="C59" s="6" t="s">
+      <c r="C59" s="5" t="s">
         <v>108</v>
       </c>
-      <c r="D59" s="6" t="s">
+      <c r="D59" s="5" t="s">
         <v>103</v>
       </c>
-      <c r="E59" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="F59" s="7"/>
-      <c r="G59" s="7"/>
+      <c r="E59" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F59" s="5"/>
+      <c r="G59" s="5"/>
     </row>
     <row r="60" ht="15" spans="1:7">
-      <c r="A60" s="5">
+      <c r="A60" s="4">
         <v>59</v>
       </c>
-      <c r="B60" s="6" t="s">
+      <c r="B60" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="C60" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="D60" s="6" t="s">
+      <c r="C60" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D60" s="5" t="s">
         <v>110</v>
       </c>
-      <c r="E60" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="F60" s="7"/>
-      <c r="G60" s="7"/>
+      <c r="E60" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F60" s="5"/>
+      <c r="G60" s="5"/>
     </row>
     <row r="61" ht="15" spans="1:7">
-      <c r="A61" s="5">
+      <c r="A61" s="4">
         <v>60</v>
       </c>
-      <c r="B61" s="6" t="s">
+      <c r="B61" s="5" t="s">
         <v>111</v>
       </c>
-      <c r="C61" s="6" t="s">
+      <c r="C61" s="5" t="s">
         <v>112</v>
       </c>
-      <c r="D61" s="7">
+      <c r="D61" s="5">
         <v>1</v>
       </c>
-      <c r="E61" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="F61" s="7"/>
-      <c r="G61" s="7"/>
+      <c r="E61" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F61" s="5"/>
+      <c r="G61" s="5"/>
     </row>
     <row r="62" ht="15" spans="1:7">
-      <c r="A62" s="5">
+      <c r="A62" s="4">
         <v>61</v>
       </c>
-      <c r="B62" s="6" t="s">
+      <c r="B62" s="5" t="s">
         <v>113</v>
       </c>
-      <c r="C62" s="6" t="s">
+      <c r="C62" s="5" t="s">
         <v>108</v>
       </c>
-      <c r="D62" s="6" t="s">
+      <c r="D62" s="5" t="s">
         <v>114</v>
       </c>
-      <c r="E62" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="F62" s="7"/>
-      <c r="G62" s="7"/>
+      <c r="E62" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F62" s="5"/>
+      <c r="G62" s="5"/>
     </row>
     <row r="63" ht="15" spans="1:7">
-      <c r="A63" s="5">
+      <c r="A63" s="4">
         <v>62</v>
       </c>
-      <c r="B63" s="6" t="s">
+      <c r="B63" s="5" t="s">
         <v>115</v>
       </c>
-      <c r="C63" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="D63" s="6" t="s">
+      <c r="C63" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D63" s="5" t="s">
         <v>116</v>
       </c>
-      <c r="E63" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="F63" s="7"/>
-      <c r="G63" s="7"/>
+      <c r="E63" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F63" s="5"/>
+      <c r="G63" s="5"/>
     </row>
     <row r="64" ht="15" spans="1:7">
-      <c r="A64" s="5">
+      <c r="A64" s="4">
         <v>63</v>
       </c>
-      <c r="B64" s="6" t="s">
+      <c r="B64" s="5" t="s">
         <v>117</v>
       </c>
-      <c r="C64" s="6" t="s">
+      <c r="C64" s="5" t="s">
         <v>118</v>
       </c>
-      <c r="D64" s="6" t="s">
+      <c r="D64" s="5" t="s">
         <v>118</v>
       </c>
-      <c r="E64" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="F64" s="7"/>
-      <c r="G64" s="7"/>
+      <c r="E64" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F64" s="5"/>
+      <c r="G64" s="5"/>
     </row>
     <row r="65" ht="15" spans="1:7">
-      <c r="A65" s="5">
+      <c r="A65" s="4">
         <v>64</v>
       </c>
-      <c r="B65" s="6" t="s">
+      <c r="B65" s="5" t="s">
         <v>119</v>
       </c>
-      <c r="C65" s="6" t="s">
+      <c r="C65" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="D65" s="7">
+      <c r="D65" s="5">
         <v>123456</v>
       </c>
-      <c r="E65" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="F65" s="6" t="s">
+      <c r="E65" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F65" s="5" t="s">
         <v>121</v>
       </c>
-      <c r="G65" s="7"/>
+      <c r="G65" s="5"/>
     </row>
     <row r="66" ht="15" spans="1:7">
-      <c r="A66" s="5">
+      <c r="A66" s="4">
         <v>65</v>
       </c>
-      <c r="B66" s="6" t="s">
+      <c r="B66" s="5" t="s">
         <v>119</v>
       </c>
-      <c r="C66" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="D66" s="7">
+      <c r="C66" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D66" s="5">
         <v>123456</v>
       </c>
-      <c r="E66" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="F66" s="7"/>
-      <c r="G66" s="7"/>
+      <c r="E66" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F66" s="5"/>
+      <c r="G66" s="5"/>
     </row>
     <row r="67" ht="15" spans="1:7">
-      <c r="A67" s="5">
+      <c r="A67" s="4">
         <v>66</v>
       </c>
-      <c r="B67" s="6" t="s">
+      <c r="B67" s="5" t="s">
         <v>122</v>
       </c>
-      <c r="C67" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="D67" s="6" t="s">
+      <c r="C67" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D67" s="5" t="s">
         <v>123</v>
       </c>
-      <c r="E67" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="F67" s="7"/>
-      <c r="G67" s="7"/>
+      <c r="E67" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F67" s="5"/>
+      <c r="G67" s="5"/>
     </row>
     <row r="68" ht="15" spans="1:7">
-      <c r="A68" s="5">
+      <c r="A68" s="4">
         <v>67</v>
       </c>
-      <c r="B68" s="6" t="s">
+      <c r="B68" s="5" t="s">
         <v>124</v>
       </c>
-      <c r="C68" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="D68" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E68" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="F68" s="7"/>
-      <c r="G68" s="7"/>
+      <c r="C68" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D68" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E68" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F68" s="5"/>
+      <c r="G68" s="5"/>
     </row>
     <row r="69" ht="15" spans="1:7">
-      <c r="A69" s="5">
+      <c r="A69" s="4">
         <v>68</v>
       </c>
-      <c r="B69" s="6" t="s">
+      <c r="B69" s="5" t="s">
         <v>125</v>
       </c>
-      <c r="C69" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="D69" s="7">
+      <c r="C69" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D69" s="5">
         <v>123456</v>
       </c>
-      <c r="E69" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="F69" s="7"/>
-      <c r="G69" s="7"/>
+      <c r="E69" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F69" s="5"/>
+      <c r="G69" s="5"/>
     </row>
     <row r="70" ht="15" spans="1:7">
-      <c r="A70" s="5">
+      <c r="A70" s="4">
         <v>69</v>
       </c>
-      <c r="B70" s="6" t="s">
+      <c r="B70" s="5" t="s">
         <v>126</v>
       </c>
-      <c r="C70" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="D70" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E70" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="F70" s="7"/>
-      <c r="G70" s="7"/>
+      <c r="C70" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D70" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E70" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F70" s="5"/>
+      <c r="G70" s="5"/>
     </row>
     <row r="71" ht="15" spans="1:7">
-      <c r="A71" s="5">
+      <c r="A71" s="4">
         <v>70</v>
       </c>
-      <c r="B71" s="6" t="s">
+      <c r="B71" s="5" t="s">
         <v>127</v>
       </c>
-      <c r="C71" s="6" t="s">
+      <c r="C71" s="5" t="s">
         <v>128</v>
       </c>
-      <c r="D71" s="6" t="s">
+      <c r="D71" s="5" t="s">
         <v>128</v>
       </c>
-      <c r="E71" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="F71" s="7"/>
-      <c r="G71" s="7"/>
+      <c r="E71" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F71" s="5"/>
+      <c r="G71" s="5"/>
     </row>
     <row r="72" ht="15" spans="1:7">
-      <c r="A72" s="5">
+      <c r="A72" s="4">
         <v>71</v>
       </c>
-      <c r="B72" s="6" t="s">
+      <c r="B72" s="5" t="s">
         <v>129</v>
       </c>
-      <c r="C72" s="6" t="s">
+      <c r="C72" s="5" t="s">
         <v>130</v>
       </c>
-      <c r="D72" s="6" t="s">
+      <c r="D72" s="5" t="s">
         <v>131</v>
       </c>
-      <c r="E72" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="F72" s="7"/>
-      <c r="G72" s="7"/>
+      <c r="E72" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F72" s="5"/>
+      <c r="G72" s="5"/>
     </row>
     <row r="73" ht="15" spans="1:7">
-      <c r="A73" s="5">
+      <c r="A73" s="4">
         <v>72</v>
       </c>
-      <c r="B73" s="6" t="s">
+      <c r="B73" s="5" t="s">
         <v>132</v>
       </c>
-      <c r="C73" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="D73" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E73" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="F73" s="7"/>
-      <c r="G73" s="7"/>
+      <c r="C73" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D73" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E73" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F73" s="5"/>
+      <c r="G73" s="5"/>
     </row>
     <row r="74" ht="15" spans="1:7">
-      <c r="A74" s="5">
+      <c r="A74" s="4">
         <v>73</v>
       </c>
-      <c r="B74" s="6" t="s">
+      <c r="B74" s="5" t="s">
         <v>133</v>
       </c>
-      <c r="C74" s="6" t="s">
+      <c r="C74" s="5" t="s">
         <v>134</v>
       </c>
-      <c r="D74" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E74" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="F74" s="7"/>
-      <c r="G74" s="7"/>
+      <c r="D74" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E74" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F74" s="5"/>
+      <c r="G74" s="5"/>
     </row>
     <row r="75" ht="15" spans="1:7">
-      <c r="A75" s="5">
+      <c r="A75" s="4">
         <v>74</v>
       </c>
-      <c r="B75" s="6" t="s">
+      <c r="B75" s="5" t="s">
         <v>135</v>
       </c>
-      <c r="C75" s="6" t="s">
+      <c r="C75" s="5" t="s">
         <v>136</v>
       </c>
-      <c r="D75" s="6" t="s">
+      <c r="D75" s="5" t="s">
         <v>136</v>
       </c>
-      <c r="E75" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="F75" s="7"/>
-      <c r="G75" s="7"/>
+      <c r="E75" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F75" s="5"/>
+      <c r="G75" s="5"/>
     </row>
     <row r="76" ht="15" spans="1:7">
-      <c r="A76" s="5">
+      <c r="A76" s="4">
         <v>75</v>
       </c>
-      <c r="B76" s="6" t="s">
+      <c r="B76" s="5" t="s">
         <v>137</v>
       </c>
-      <c r="C76" s="6" t="s">
+      <c r="C76" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="D76" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E76" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="F76" s="7"/>
-      <c r="G76" s="7"/>
+      <c r="D76" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E76" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F76" s="5"/>
+      <c r="G76" s="5"/>
     </row>
     <row r="77" ht="15" spans="1:7">
-      <c r="A77" s="5">
+      <c r="A77" s="4">
         <v>76</v>
       </c>
-      <c r="B77" s="6" t="s">
+      <c r="B77" s="5" t="s">
         <v>138</v>
       </c>
-      <c r="C77" s="6" t="s">
+      <c r="C77" s="5" t="s">
         <v>134</v>
       </c>
-      <c r="D77" s="6" t="s">
+      <c r="D77" s="5" t="s">
         <v>139</v>
       </c>
-      <c r="E77" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="F77" s="7"/>
-      <c r="G77" s="7"/>
+      <c r="E77" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F77" s="5"/>
+      <c r="G77" s="5"/>
     </row>
     <row r="78" ht="15" spans="1:7">
-      <c r="A78" s="5">
+      <c r="A78" s="4">
         <v>77</v>
       </c>
-      <c r="B78" s="6" t="s">
+      <c r="B78" s="5" t="s">
         <v>140</v>
       </c>
-      <c r="C78" s="6" t="s">
+      <c r="C78" s="5" t="s">
         <v>141</v>
       </c>
-      <c r="D78" s="6" t="s">
+      <c r="D78" s="5" t="s">
         <v>141</v>
       </c>
-      <c r="E78" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="F78" s="7"/>
-      <c r="G78" s="7"/>
+      <c r="E78" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F78" s="5"/>
+      <c r="G78" s="5"/>
     </row>
     <row r="79" ht="15" spans="1:7">
-      <c r="A79" s="5">
+      <c r="A79" s="4">
         <v>78</v>
       </c>
-      <c r="B79" s="6" t="s">
+      <c r="B79" s="5" t="s">
         <v>142</v>
       </c>
-      <c r="C79" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="D79" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E79" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="F79" s="7"/>
-      <c r="G79" s="7"/>
+      <c r="C79" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D79" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E79" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F79" s="5"/>
+      <c r="G79" s="5"/>
     </row>
     <row r="80" ht="15" spans="1:7">
-      <c r="A80" s="5">
+      <c r="A80" s="4">
         <v>79</v>
       </c>
-      <c r="B80" s="6" t="s">
+      <c r="B80" s="5" t="s">
         <v>143</v>
       </c>
-      <c r="C80" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="D80" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E80" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="F80" s="7"/>
-      <c r="G80" s="7"/>
+      <c r="C80" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D80" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E80" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F80" s="5"/>
+      <c r="G80" s="5"/>
     </row>
     <row r="81" ht="15" spans="1:7">
-      <c r="A81" s="5">
+      <c r="A81" s="4">
         <v>80</v>
       </c>
-      <c r="B81" s="6" t="s">
+      <c r="B81" s="5" t="s">
         <v>144</v>
       </c>
-      <c r="C81" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="D81" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E81" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="F81" s="7"/>
-      <c r="G81" s="7"/>
+      <c r="C81" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D81" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E81" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F81" s="5"/>
+      <c r="G81" s="5"/>
     </row>
     <row r="82" ht="15" spans="1:7">
-      <c r="A82" s="5">
+      <c r="A82" s="4">
         <v>81</v>
       </c>
-      <c r="B82" s="6" t="s">
+      <c r="B82" s="5" t="s">
         <v>145</v>
       </c>
-      <c r="C82" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="D82" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E82" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="F82" s="7"/>
-      <c r="G82" s="7"/>
+      <c r="C82" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D82" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E82" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F82" s="5"/>
+      <c r="G82" s="5"/>
     </row>
     <row r="83" ht="15" spans="1:7">
-      <c r="A83" s="5">
+      <c r="A83" s="4">
         <v>82</v>
       </c>
-      <c r="B83" s="6" t="s">
+      <c r="B83" s="5" t="s">
         <v>146</v>
       </c>
-      <c r="C83" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="D83" s="6" t="s">
+      <c r="C83" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D83" s="5" t="s">
         <v>147</v>
       </c>
-      <c r="E83" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="F83" s="7"/>
-      <c r="G83" s="7"/>
+      <c r="E83" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F83" s="5"/>
+      <c r="G83" s="5"/>
     </row>
     <row r="84" ht="15" spans="1:7">
-      <c r="A84" s="5">
+      <c r="A84" s="4">
         <v>83</v>
       </c>
-      <c r="B84" s="6" t="s">
+      <c r="B84" s="5" t="s">
         <v>148</v>
       </c>
-      <c r="C84" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="D84" s="7">
+      <c r="C84" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D84" s="5">
         <v>123456</v>
       </c>
-      <c r="E84" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="F84" s="7"/>
-      <c r="G84" s="7"/>
+      <c r="E84" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F84" s="5"/>
+      <c r="G84" s="5"/>
     </row>
     <row r="85" ht="15" spans="1:7">
-      <c r="A85" s="5">
+      <c r="A85" s="4">
         <v>84</v>
       </c>
-      <c r="B85" s="6" t="s">
+      <c r="B85" s="5" t="s">
         <v>149</v>
       </c>
-      <c r="C85" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="D85" s="6" t="s">
+      <c r="C85" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D85" s="5" t="s">
         <v>150</v>
       </c>
-      <c r="E85" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="F85" s="6" t="s">
+      <c r="E85" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F85" s="5" t="s">
         <v>151</v>
       </c>
-      <c r="G85" s="7"/>
+      <c r="G85" s="5"/>
     </row>
     <row r="86" ht="15" spans="1:7">
-      <c r="A86" s="5">
+      <c r="A86" s="4">
         <v>85</v>
       </c>
-      <c r="B86" s="6" t="s">
+      <c r="B86" s="5" t="s">
         <v>149</v>
       </c>
-      <c r="C86" s="6" t="s">
+      <c r="C86" s="5" t="s">
         <v>152</v>
       </c>
-      <c r="D86" s="6" t="s">
+      <c r="D86" s="5" t="s">
         <v>153</v>
       </c>
-      <c r="E86" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="F86" s="6" t="s">
+      <c r="E86" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F86" s="5" t="s">
         <v>154</v>
       </c>
-      <c r="G86" s="7"/>
+      <c r="G86" s="5"/>
     </row>
     <row r="87" ht="15" spans="1:7">
-      <c r="A87" s="5">
+      <c r="A87" s="4">
         <v>86</v>
       </c>
-      <c r="B87" s="6" t="s">
+      <c r="B87" s="5" t="s">
         <v>155</v>
       </c>
-      <c r="C87" s="6" t="s">
+      <c r="C87" s="5" t="s">
         <v>156</v>
       </c>
-      <c r="D87" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E87" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="F87" s="7"/>
-      <c r="G87" s="7"/>
+      <c r="D87" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E87" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F87" s="5"/>
+      <c r="G87" s="5"/>
     </row>
     <row r="88" ht="15" spans="1:7">
-      <c r="A88" s="5">
+      <c r="A88" s="4">
         <v>87</v>
       </c>
-      <c r="B88" s="6" t="s">
+      <c r="B88" s="5" t="s">
         <v>157</v>
       </c>
-      <c r="C88" s="7">
+      <c r="C88" s="5">
         <v>9999</v>
       </c>
-      <c r="D88" s="7">
+      <c r="D88" s="5">
         <v>123456</v>
       </c>
-      <c r="E88" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="F88" s="7"/>
-      <c r="G88" s="7"/>
+      <c r="E88" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F88" s="5"/>
+      <c r="G88" s="5"/>
     </row>
     <row r="89" ht="15" spans="1:7">
-      <c r="A89" s="5">
+      <c r="A89" s="4">
         <v>88</v>
       </c>
-      <c r="B89" s="6" t="s">
+      <c r="B89" s="5" t="s">
         <v>158</v>
       </c>
-      <c r="C89" s="6" t="s">
+      <c r="C89" s="5" t="s">
         <v>159</v>
       </c>
-      <c r="D89" s="7">
+      <c r="D89" s="5">
         <v>123456</v>
       </c>
-      <c r="E89" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="F89" s="6" t="s">
+      <c r="E89" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F89" s="5" t="s">
         <v>154</v>
       </c>
-      <c r="G89" s="7"/>
+      <c r="G89" s="5"/>
     </row>
     <row r="90" ht="15" spans="1:7">
-      <c r="A90" s="5">
+      <c r="A90" s="4">
         <v>89</v>
       </c>
-      <c r="B90" s="6" t="s">
+      <c r="B90" s="5" t="s">
         <v>158</v>
       </c>
-      <c r="C90" s="6" t="s">
+      <c r="C90" s="5" t="s">
         <v>160</v>
       </c>
-      <c r="D90" s="7">
+      <c r="D90" s="5">
         <v>123456</v>
       </c>
-      <c r="E90" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="F90" s="7"/>
-      <c r="G90" s="7"/>
+      <c r="E90" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F90" s="5"/>
+      <c r="G90" s="5"/>
     </row>
     <row r="91" ht="15" spans="1:7">
-      <c r="A91" s="5">
+      <c r="A91" s="4">
         <v>90</v>
       </c>
-      <c r="B91" s="6" t="s">
+      <c r="B91" s="5" t="s">
         <v>111</v>
       </c>
-      <c r="C91" s="6" t="s">
+      <c r="C91" s="5" t="s">
         <v>112</v>
       </c>
-      <c r="D91" s="6" t="s">
+      <c r="D91" s="5" t="s">
         <v>161</v>
       </c>
-      <c r="E91" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="F91" s="7"/>
-      <c r="G91" s="7"/>
+      <c r="E91" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F91" s="5"/>
+      <c r="G91" s="5"/>
     </row>
     <row r="92" ht="15" spans="1:7">
-      <c r="A92" s="5">
+      <c r="A92" s="4">
         <v>91</v>
       </c>
-      <c r="B92" s="6" t="s">
+      <c r="B92" s="5" t="s">
         <v>162</v>
       </c>
-      <c r="C92" s="6" t="s">
+      <c r="C92" s="5" t="s">
         <v>108</v>
       </c>
-      <c r="D92" s="6" t="s">
+      <c r="D92" s="5" t="s">
         <v>108</v>
       </c>
-      <c r="E92" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="F92" s="7"/>
-      <c r="G92" s="7"/>
+      <c r="E92" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F92" s="5"/>
+      <c r="G92" s="5"/>
     </row>
     <row r="93" ht="15" spans="1:7">
-      <c r="A93" s="5">
+      <c r="A93" s="4">
         <v>92</v>
       </c>
-      <c r="B93" s="6" t="s">
+      <c r="B93" s="5" t="s">
         <v>163</v>
       </c>
-      <c r="C93" s="6" t="s">
+      <c r="C93" s="5" t="s">
         <v>164</v>
       </c>
-      <c r="D93" s="7">
+      <c r="D93" s="5">
         <v>123456</v>
       </c>
-      <c r="E93" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="F93" s="7"/>
-      <c r="G93" s="7"/>
+      <c r="E93" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F93" s="5"/>
+      <c r="G93" s="5"/>
     </row>
     <row r="94" ht="15" spans="1:7">
-      <c r="A94" s="5">
+      <c r="A94" s="4">
         <v>93</v>
       </c>
-      <c r="B94" s="6" t="s">
+      <c r="B94" s="5" t="s">
         <v>165</v>
       </c>
-      <c r="C94" s="6" t="s">
+      <c r="C94" s="5" t="s">
         <v>166</v>
       </c>
-      <c r="D94" s="6" t="s">
+      <c r="D94" s="5" t="s">
         <v>167</v>
       </c>
-      <c r="E94" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="F94" s="7"/>
-      <c r="G94" s="7"/>
+      <c r="E94" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F94" s="5"/>
+      <c r="G94" s="5"/>
     </row>
     <row r="95" ht="15" spans="1:7">
-      <c r="A95" s="5">
+      <c r="A95" s="4">
         <v>94</v>
       </c>
-      <c r="B95" s="6" t="s">
+      <c r="B95" s="5" t="s">
         <v>168</v>
       </c>
-      <c r="C95" s="6" t="s">
+      <c r="C95" s="5" t="s">
         <v>159</v>
       </c>
-      <c r="D95" s="6" t="s">
+      <c r="D95" s="5" t="s">
         <v>169</v>
       </c>
-      <c r="E95" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="F95" s="7"/>
-      <c r="G95" s="7"/>
+      <c r="E95" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F95" s="5"/>
+      <c r="G95" s="5"/>
     </row>
     <row r="96" ht="15" spans="1:7">
-      <c r="A96" s="5">
+      <c r="A96" s="4">
         <v>95</v>
       </c>
-      <c r="B96" s="6" t="s">
+      <c r="B96" s="5" t="s">
         <v>170</v>
       </c>
-      <c r="C96" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="D96" s="6" t="s">
+      <c r="C96" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D96" s="5" t="s">
         <v>171</v>
       </c>
-      <c r="E96" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="F96" s="7"/>
-      <c r="G96" s="7"/>
+      <c r="E96" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F96" s="5"/>
+      <c r="G96" s="5"/>
     </row>
     <row r="97" ht="15" spans="1:7">
-      <c r="A97" s="5">
+      <c r="A97" s="4">
         <v>96</v>
       </c>
-      <c r="B97" s="6" t="s">
+      <c r="B97" s="5" t="s">
         <v>172</v>
       </c>
-      <c r="C97" s="6" t="s">
+      <c r="C97" s="5" t="s">
         <v>173</v>
       </c>
-      <c r="D97" s="6" t="s">
+      <c r="D97" s="5" t="s">
         <v>150</v>
       </c>
-      <c r="E97" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="F97" s="7"/>
-      <c r="G97" s="7"/>
+      <c r="E97" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F97" s="5"/>
+      <c r="G97" s="5"/>
     </row>
     <row r="98" ht="15" spans="1:7">
-      <c r="A98" s="5">
+      <c r="A98" s="4">
         <v>97</v>
       </c>
-      <c r="B98" s="6" t="s">
+      <c r="B98" s="5" t="s">
         <v>174</v>
       </c>
-      <c r="C98" s="6" t="s">
+      <c r="C98" s="5" t="s">
         <v>175</v>
       </c>
-      <c r="D98" s="7">
+      <c r="D98" s="5">
         <v>800823</v>
       </c>
-      <c r="E98" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="F98" s="7"/>
-      <c r="G98" s="7"/>
+      <c r="E98" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F98" s="5"/>
+      <c r="G98" s="5"/>
     </row>
     <row r="99" ht="15" spans="1:7">
-      <c r="A99" s="5">
+      <c r="A99" s="4">
         <v>98</v>
       </c>
-      <c r="B99" s="6" t="s">
+      <c r="B99" s="5" t="s">
         <v>176</v>
       </c>
-      <c r="C99" s="6" t="s">
+      <c r="C99" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="D99" s="6" t="s">
+      <c r="D99" s="5" t="s">
         <v>177</v>
       </c>
-      <c r="E99" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="F99" s="7"/>
-      <c r="G99" s="7"/>
+      <c r="E99" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F99" s="5"/>
+      <c r="G99" s="5"/>
     </row>
     <row r="100" ht="15" spans="1:7">
-      <c r="A100" s="5">
+      <c r="A100" s="4">
         <v>99</v>
       </c>
-      <c r="B100" s="6" t="s">
+      <c r="B100" s="5" t="s">
         <v>178</v>
       </c>
-      <c r="C100" s="8" t="s">
+      <c r="C100" s="6" t="s">
         <v>179</v>
       </c>
-      <c r="D100" s="6" t="s">
+      <c r="D100" s="5" t="s">
         <v>180</v>
       </c>
-      <c r="E100" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="F100" s="7"/>
-      <c r="G100" s="7"/>
+      <c r="E100" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F100" s="5"/>
+      <c r="G100" s="5"/>
     </row>
     <row r="101" ht="15" spans="1:7">
-      <c r="A101" s="5">
+      <c r="A101" s="4">
         <v>100</v>
       </c>
-      <c r="B101" s="6" t="s">
+      <c r="B101" s="5" t="s">
         <v>181</v>
       </c>
-      <c r="C101" s="6" t="s">
+      <c r="C101" s="5" t="s">
         <v>175</v>
       </c>
-      <c r="D101" s="6" t="s">
+      <c r="D101" s="5" t="s">
         <v>180</v>
       </c>
-      <c r="E101" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="F101" s="7"/>
-      <c r="G101" s="7"/>
+      <c r="E101" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F101" s="5"/>
+      <c r="G101" s="5"/>
     </row>
     <row r="102" ht="15" spans="1:7">
-      <c r="A102" s="5">
+      <c r="A102" s="4">
         <v>101</v>
       </c>
-      <c r="B102" s="6" t="s">
+      <c r="B102" s="5" t="s">
         <v>182</v>
       </c>
-      <c r="C102" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="D102" s="6" t="s">
+      <c r="C102" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D102" s="5" t="s">
         <v>183</v>
       </c>
-      <c r="E102" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="F102" s="7"/>
-      <c r="G102" s="7"/>
+      <c r="E102" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F102" s="5"/>
+      <c r="G102" s="5"/>
     </row>
     <row r="103" ht="15" spans="1:7">
-      <c r="A103" s="5">
+      <c r="A103" s="4">
         <v>102</v>
       </c>
-      <c r="B103" s="6" t="s">
+      <c r="B103" s="5" t="s">
         <v>184</v>
       </c>
-      <c r="C103" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="D103" s="7">
+      <c r="C103" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D103" s="5">
         <v>123456</v>
       </c>
-      <c r="E103" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="F103" s="7"/>
-      <c r="G103" s="6" t="s">
+      <c r="E103" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F103" s="5"/>
+      <c r="G103" s="5" t="s">
         <v>185</v>
       </c>
     </row>
     <row r="104" ht="15" spans="1:7">
-      <c r="A104" s="5">
+      <c r="A104" s="4">
         <v>103</v>
       </c>
-      <c r="B104" s="6" t="s">
+      <c r="B104" s="5" t="s">
         <v>186</v>
       </c>
-      <c r="C104" s="6" t="s">
+      <c r="C104" s="5" t="s">
         <v>187</v>
       </c>
-      <c r="D104" s="7">
+      <c r="D104" s="5">
         <v>111111</v>
       </c>
-      <c r="E104" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="F104" s="7"/>
-      <c r="G104" s="7"/>
+      <c r="E104" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F104" s="5"/>
+      <c r="G104" s="5"/>
     </row>
     <row r="105" ht="15" spans="1:7">
-      <c r="A105" s="5">
+      <c r="A105" s="4">
         <v>104</v>
       </c>
-      <c r="B105" s="6" t="s">
+      <c r="B105" s="5" t="s">
         <v>188</v>
       </c>
-      <c r="C105" s="6" t="s">
+      <c r="C105" s="5" t="s">
         <v>189</v>
       </c>
-      <c r="D105" s="6" t="s">
+      <c r="D105" s="5" t="s">
         <v>190</v>
       </c>
-      <c r="E105" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="F105" s="7"/>
-      <c r="G105" s="7"/>
+      <c r="E105" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F105" s="5"/>
+      <c r="G105" s="5"/>
     </row>
     <row r="106" ht="15" spans="1:7">
-      <c r="A106" s="5">
+      <c r="A106" s="4">
         <v>105</v>
       </c>
-      <c r="B106" s="6" t="s">
+      <c r="B106" s="5" t="s">
         <v>191</v>
       </c>
-      <c r="C106" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="D106" s="6" t="s">
+      <c r="C106" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D106" s="5" t="s">
         <v>192</v>
       </c>
-      <c r="E106" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="F106" s="7"/>
-      <c r="G106" s="7"/>
+      <c r="E106" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F106" s="5"/>
+      <c r="G106" s="5"/>
     </row>
     <row r="107" ht="30" spans="1:7">
-      <c r="A107" s="5">
+      <c r="A107" s="4">
         <v>106</v>
       </c>
-      <c r="B107" s="6" t="s">
+      <c r="B107" s="5" t="s">
         <v>193</v>
       </c>
-      <c r="C107" s="6" t="s">
+      <c r="C107" s="5" t="s">
         <v>194</v>
       </c>
-      <c r="D107" s="6" t="s">
+      <c r="D107" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="E107" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="F107" s="7"/>
-      <c r="G107" s="6" t="s">
+      <c r="E107" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F107" s="5"/>
+      <c r="G107" s="5" t="s">
         <v>195</v>
       </c>
     </row>
     <row r="108" ht="15" spans="1:7">
-      <c r="A108" s="5">
+      <c r="A108" s="4">
         <v>107</v>
       </c>
-      <c r="B108" s="6" t="s">
+      <c r="B108" s="5" t="s">
         <v>196</v>
       </c>
-      <c r="C108" s="6" t="s">
+      <c r="C108" s="5" t="s">
         <v>197</v>
       </c>
-      <c r="D108" s="6" t="s">
+      <c r="D108" s="5" t="s">
         <v>197</v>
       </c>
-      <c r="E108" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="F108" s="7"/>
-      <c r="G108" s="7"/>
+      <c r="E108" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F108" s="5"/>
+      <c r="G108" s="5"/>
     </row>
     <row r="109" ht="15" spans="1:7">
-      <c r="A109" s="5">
+      <c r="A109" s="4">
         <v>108</v>
       </c>
-      <c r="B109" s="6" t="s">
+      <c r="B109" s="5" t="s">
         <v>198</v>
       </c>
-      <c r="C109" s="6" t="s">
+      <c r="C109" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="D109" s="6" t="s">
+      <c r="D109" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="E109" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="F109" s="6" t="s">
+      <c r="E109" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F109" s="5" t="s">
         <v>199</v>
       </c>
-      <c r="G109" s="7"/>
+      <c r="G109" s="5"/>
     </row>
     <row r="110" ht="30" spans="1:7">
-      <c r="A110" s="5">
+      <c r="A110" s="4">
         <v>109</v>
       </c>
-      <c r="B110" s="6" t="s">
+      <c r="B110" s="5" t="s">
         <v>200</v>
       </c>
-      <c r="C110" s="6" t="s">
+      <c r="C110" s="5" t="s">
         <v>201</v>
       </c>
-      <c r="D110" s="7" t="s">
+      <c r="D110" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="E110" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="F110" s="6" t="s">
+      <c r="E110" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F110" s="5" t="s">
         <v>202</v>
       </c>
-      <c r="G110" s="7"/>
+      <c r="G110" s="5"/>
     </row>
     <row r="111" ht="30" spans="1:7">
-      <c r="A111" s="5">
+      <c r="A111" s="4">
         <v>110</v>
       </c>
-      <c r="B111" s="6" t="s">
+      <c r="B111" s="5" t="s">
         <v>200</v>
       </c>
-      <c r="C111" s="6" t="s">
+      <c r="C111" s="5" t="s">
         <v>203</v>
       </c>
-      <c r="D111" s="7">
+      <c r="D111" s="5">
         <v>123456</v>
       </c>
-      <c r="E111" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="F111" s="6" t="s">
+      <c r="E111" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F111" s="5" t="s">
         <v>202</v>
       </c>
-      <c r="G111" s="7"/>
+      <c r="G111" s="5"/>
     </row>
     <row r="112" ht="30" spans="1:7">
-      <c r="A112" s="5">
+      <c r="A112" s="4">
         <v>111</v>
       </c>
-      <c r="B112" s="6" t="s">
+      <c r="B112" s="5" t="s">
         <v>200</v>
       </c>
-      <c r="C112" s="6" t="s">
+      <c r="C112" s="5" t="s">
         <v>204</v>
       </c>
-      <c r="D112" s="7">
+      <c r="D112" s="5">
         <v>123456</v>
       </c>
-      <c r="E112" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="F112" s="6" t="s">
+      <c r="E112" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F112" s="5" t="s">
         <v>202</v>
       </c>
-      <c r="G112" s="7"/>
+      <c r="G112" s="5"/>
     </row>
     <row r="113" ht="30" spans="1:7">
-      <c r="A113" s="5">
+      <c r="A113" s="4">
         <v>112</v>
       </c>
-      <c r="B113" s="6" t="s">
+      <c r="B113" s="5" t="s">
         <v>200</v>
       </c>
-      <c r="C113" s="6" t="s">
+      <c r="C113" s="5" t="s">
         <v>205</v>
       </c>
-      <c r="D113" s="7">
+      <c r="D113" s="5">
         <v>123456</v>
       </c>
-      <c r="E113" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="F113" s="6" t="s">
+      <c r="E113" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F113" s="5" t="s">
         <v>202</v>
       </c>
-      <c r="G113" s="7"/>
+      <c r="G113" s="5"/>
     </row>
     <row r="114" ht="30" spans="1:7">
-      <c r="A114" s="5">
+      <c r="A114" s="4">
         <v>113</v>
       </c>
-      <c r="B114" s="6" t="s">
+      <c r="B114" s="5" t="s">
         <v>200</v>
       </c>
-      <c r="C114" s="6" t="s">
+      <c r="C114" s="5" t="s">
         <v>206</v>
       </c>
-      <c r="D114" s="7">
+      <c r="D114" s="5">
         <v>123456</v>
       </c>
-      <c r="E114" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="F114" s="6" t="s">
+      <c r="E114" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F114" s="5" t="s">
         <v>202</v>
       </c>
-      <c r="G114" s="7"/>
+      <c r="G114" s="5"/>
     </row>
     <row r="115" ht="30" spans="1:7">
-      <c r="A115" s="5">
+      <c r="A115" s="4">
         <v>114</v>
       </c>
-      <c r="B115" s="6" t="s">
+      <c r="B115" s="5" t="s">
         <v>200</v>
       </c>
-      <c r="C115" s="6" t="s">
+      <c r="C115" s="5" t="s">
         <v>207</v>
       </c>
-      <c r="D115" s="7">
+      <c r="D115" s="5">
         <v>123456</v>
       </c>
-      <c r="E115" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="F115" s="6" t="s">
+      <c r="E115" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F115" s="5" t="s">
         <v>202</v>
       </c>
-      <c r="G115" s="7"/>
+      <c r="G115" s="5"/>
     </row>
     <row r="116" ht="15" spans="1:7">
-      <c r="A116" s="5">
+      <c r="A116" s="4">
         <v>115</v>
       </c>
-      <c r="B116" s="6" t="s">
+      <c r="B116" s="5" t="s">
         <v>208</v>
       </c>
-      <c r="C116" s="6" t="s">
+      <c r="C116" s="5" t="s">
         <v>209</v>
       </c>
-      <c r="D116" s="6" t="s">
+      <c r="D116" s="5" t="s">
         <v>210</v>
       </c>
-      <c r="E116" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="F116" s="7"/>
-      <c r="G116" s="7"/>
+      <c r="E116" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F116" s="5"/>
+      <c r="G116" s="5"/>
     </row>
     <row r="117" ht="15" spans="1:7">
-      <c r="A117" s="5">
+      <c r="A117" s="4">
         <v>116</v>
       </c>
-      <c r="B117" s="6" t="s">
+      <c r="B117" s="5" t="s">
         <v>211</v>
       </c>
-      <c r="C117" s="6" t="s">
+      <c r="C117" s="5" t="s">
         <v>212</v>
       </c>
-      <c r="D117" s="6" t="s">
+      <c r="D117" s="5" t="s">
         <v>212</v>
       </c>
-      <c r="E117" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="F117" s="7"/>
-      <c r="G117" s="7"/>
+      <c r="E117" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F117" s="5"/>
+      <c r="G117" s="5"/>
     </row>
     <row r="118" ht="15" spans="1:7">
-      <c r="A118" s="5">
+      <c r="A118" s="4">
         <v>117</v>
       </c>
-      <c r="B118" s="6" t="s">
+      <c r="B118" s="5" t="s">
         <v>213</v>
       </c>
-      <c r="C118" s="6" t="s">
+      <c r="C118" s="5" t="s">
         <v>112</v>
       </c>
-      <c r="D118" s="6" t="s">
+      <c r="D118" s="5" t="s">
         <v>214</v>
       </c>
-      <c r="E118" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="F118" s="7"/>
-      <c r="G118" s="7"/>
+      <c r="E118" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F118" s="5"/>
+      <c r="G118" s="5"/>
     </row>
     <row r="119" ht="15" spans="1:7">
-      <c r="A119" s="5">
+      <c r="A119" s="4">
         <v>118</v>
       </c>
-      <c r="B119" s="6" t="s">
+      <c r="B119" s="5" t="s">
         <v>215</v>
       </c>
-      <c r="C119" s="6" t="s">
+      <c r="C119" s="5" t="s">
         <v>108</v>
       </c>
-      <c r="D119" s="7">
+      <c r="D119" s="5">
         <v>123456</v>
       </c>
-      <c r="E119" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="F119" s="7"/>
-      <c r="G119" s="7"/>
+      <c r="E119" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F119" s="5"/>
+      <c r="G119" s="5"/>
     </row>
     <row r="120" ht="15" spans="1:7">
-      <c r="A120" s="5">
+      <c r="A120" s="4">
         <v>119</v>
       </c>
-      <c r="B120" s="6" t="s">
+      <c r="B120" s="5" t="s">
         <v>215</v>
       </c>
-      <c r="C120" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="D120" s="7">
+      <c r="C120" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D120" s="5">
         <v>123456</v>
       </c>
-      <c r="E120" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="F120" s="7"/>
-      <c r="G120" s="7"/>
+      <c r="E120" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F120" s="5"/>
+      <c r="G120" s="5"/>
     </row>
     <row r="121" ht="15" spans="1:7">
-      <c r="A121" s="5">
+      <c r="A121" s="4">
         <v>120</v>
       </c>
-      <c r="B121" s="6" t="s">
+      <c r="B121" s="5" t="s">
         <v>215</v>
       </c>
-      <c r="C121" s="6" t="s">
+      <c r="C121" s="5" t="s">
         <v>216</v>
       </c>
-      <c r="D121" s="7">
+      <c r="D121" s="5">
         <v>123456</v>
       </c>
-      <c r="E121" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="F121" s="7"/>
-      <c r="G121" s="7"/>
+      <c r="E121" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F121" s="5"/>
+      <c r="G121" s="5"/>
     </row>
     <row r="122" ht="15" spans="1:7">
-      <c r="A122" s="5">
+      <c r="A122" s="4">
         <v>121</v>
       </c>
-      <c r="B122" s="6" t="s">
+      <c r="B122" s="5" t="s">
         <v>198</v>
       </c>
-      <c r="C122" s="6" t="s">
+      <c r="C122" s="5" t="s">
         <v>217</v>
       </c>
-      <c r="D122" s="6" t="s">
+      <c r="D122" s="5" t="s">
         <v>217</v>
       </c>
-      <c r="E122" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="F122" s="6" t="s">
+      <c r="E122" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F122" s="5" t="s">
         <v>218</v>
       </c>
-      <c r="G122" s="7"/>
+      <c r="G122" s="5"/>
     </row>
     <row r="123" ht="15" spans="1:7">
-      <c r="A123" s="5">
+      <c r="A123" s="4">
         <v>122</v>
       </c>
-      <c r="B123" s="6" t="s">
+      <c r="B123" s="5" t="s">
         <v>198</v>
       </c>
-      <c r="C123" s="6" t="s">
+      <c r="C123" s="5" t="s">
         <v>219</v>
       </c>
-      <c r="D123" s="6" t="s">
+      <c r="D123" s="5" t="s">
         <v>219</v>
       </c>
-      <c r="E123" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="F123" s="6" t="s">
+      <c r="E123" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F123" s="5" t="s">
         <v>220</v>
       </c>
-      <c r="G123" s="7"/>
+      <c r="G123" s="5"/>
     </row>
     <row r="124" ht="15" spans="1:7">
-      <c r="A124" s="5">
+      <c r="A124" s="4">
         <v>123</v>
       </c>
-      <c r="B124" s="6" t="s">
+      <c r="B124" s="5" t="s">
         <v>221</v>
       </c>
-      <c r="C124" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="D124" s="6" t="s">
+      <c r="C124" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D124" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="E124" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="F124" s="7"/>
-      <c r="G124" s="6" t="s">
+      <c r="E124" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F124" s="5"/>
+      <c r="G124" s="5" t="s">
         <v>222</v>
       </c>
     </row>
     <row r="125" ht="15" spans="1:7">
-      <c r="A125" s="5">
+      <c r="A125" s="4">
         <v>124</v>
       </c>
-      <c r="B125" s="6" t="s">
+      <c r="B125" s="5" t="s">
         <v>223</v>
       </c>
-      <c r="C125" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="D125" s="6" t="s">
+      <c r="C125" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D125" s="5" t="s">
         <v>224</v>
       </c>
-      <c r="E125" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="F125" s="7"/>
-      <c r="G125" s="7"/>
+      <c r="E125" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F125" s="5"/>
+      <c r="G125" s="5"/>
     </row>
     <row r="126" ht="15" spans="1:7">
-      <c r="A126" s="5">
+      <c r="A126" s="4">
         <v>125</v>
       </c>
-      <c r="B126" s="6" t="s">
+      <c r="B126" s="5" t="s">
         <v>225</v>
       </c>
-      <c r="C126" s="6" t="s">
+      <c r="C126" s="5" t="s">
         <v>226</v>
       </c>
-      <c r="D126" s="6" t="s">
+      <c r="D126" s="5" t="s">
         <v>226</v>
       </c>
-      <c r="E126" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="F126" s="7"/>
-      <c r="G126" s="7"/>
+      <c r="E126" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F126" s="5"/>
+      <c r="G126" s="5"/>
     </row>
     <row r="127" ht="15" spans="1:7">
-      <c r="A127" s="5">
+      <c r="A127" s="4">
         <v>126</v>
       </c>
-      <c r="B127" s="6" t="s">
+      <c r="B127" s="5" t="s">
         <v>225</v>
       </c>
-      <c r="C127" s="6" t="s">
+      <c r="C127" s="5" t="s">
         <v>226</v>
       </c>
-      <c r="D127" s="6" t="s">
+      <c r="D127" s="5" t="s">
         <v>227</v>
       </c>
-      <c r="E127" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="F127" s="7"/>
-      <c r="G127" s="7"/>
+      <c r="E127" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F127" s="5"/>
+      <c r="G127" s="5"/>
     </row>
     <row r="128" ht="15" spans="1:7">
-      <c r="A128" s="5">
+      <c r="A128" s="4">
         <v>127</v>
       </c>
-      <c r="B128" s="6" t="s">
+      <c r="B128" s="5" t="s">
         <v>228</v>
       </c>
-      <c r="C128" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="D128" s="6" t="s">
+      <c r="C128" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D128" s="5" t="s">
         <v>229</v>
       </c>
-      <c r="E128" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="F128" s="7"/>
-      <c r="G128" s="7"/>
+      <c r="E128" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F128" s="5"/>
+      <c r="G128" s="5"/>
     </row>
     <row r="129" ht="15" spans="1:7">
-      <c r="A129" s="5">
+      <c r="A129" s="4">
         <v>128</v>
       </c>
-      <c r="B129" s="6" t="s">
+      <c r="B129" s="5" t="s">
         <v>230</v>
       </c>
-      <c r="C129" s="6" t="s">
+      <c r="C129" s="5" t="s">
         <v>231</v>
       </c>
-      <c r="D129" s="6" t="s">
+      <c r="D129" s="5" t="s">
         <v>231</v>
       </c>
-      <c r="E129" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="F129" s="7"/>
-      <c r="G129" s="7"/>
+      <c r="E129" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F129" s="5"/>
+      <c r="G129" s="5"/>
     </row>
     <row r="130" ht="15" spans="1:7">
-      <c r="A130" s="5">
+      <c r="A130" s="4">
         <v>129</v>
       </c>
-      <c r="B130" s="6" t="s">
+      <c r="B130" s="5" t="s">
         <v>232</v>
       </c>
-      <c r="C130" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="D130" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E130" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="F130" s="7"/>
-      <c r="G130" s="7"/>
+      <c r="C130" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D130" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E130" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F130" s="5"/>
+      <c r="G130" s="5"/>
     </row>
     <row r="131" ht="15" spans="1:7">
-      <c r="A131" s="5">
+      <c r="A131" s="4">
         <v>130</v>
       </c>
-      <c r="B131" s="6" t="s">
+      <c r="B131" s="5" t="s">
         <v>233</v>
       </c>
-      <c r="C131" s="6" t="s">
+      <c r="C131" s="5" t="s">
         <v>234</v>
       </c>
-      <c r="D131" s="6" t="s">
+      <c r="D131" s="5" t="s">
         <v>235</v>
       </c>
-      <c r="E131" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="F131" s="7"/>
-      <c r="G131" s="7"/>
+      <c r="E131" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F131" s="5"/>
+      <c r="G131" s="5"/>
     </row>
     <row r="132" ht="15" spans="1:7">
-      <c r="A132" s="5">
+      <c r="A132" s="4">
         <v>131</v>
       </c>
-      <c r="B132" s="6" t="s">
+      <c r="B132" s="5" t="s">
         <v>236</v>
       </c>
-      <c r="C132" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="D132" s="6" t="s">
+      <c r="C132" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D132" s="5" t="s">
         <v>237</v>
       </c>
-      <c r="E132" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="F132" s="7"/>
-      <c r="G132" s="7"/>
+      <c r="E132" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F132" s="5"/>
+      <c r="G132" s="5"/>
     </row>
     <row r="133" ht="15" spans="1:7">
-      <c r="A133" s="5">
+      <c r="A133" s="4">
         <v>132</v>
       </c>
-      <c r="B133" s="6" t="s">
+      <c r="B133" s="5" t="s">
         <v>238</v>
       </c>
-      <c r="C133" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="D133" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E133" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="F133" s="7"/>
-      <c r="G133" s="7"/>
+      <c r="C133" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D133" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E133" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F133" s="5"/>
+      <c r="G133" s="5"/>
     </row>
     <row r="134" ht="15" spans="1:7">
-      <c r="A134" s="5">
+      <c r="A134" s="4">
         <v>133</v>
       </c>
-      <c r="B134" s="6" t="s">
+      <c r="B134" s="5" t="s">
         <v>239</v>
       </c>
-      <c r="C134" s="6" t="s">
+      <c r="C134" s="5" t="s">
         <v>240</v>
       </c>
-      <c r="D134" s="6" t="s">
+      <c r="D134" s="5" t="s">
         <v>241</v>
       </c>
-      <c r="E134" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="F134" s="7"/>
-      <c r="G134" s="7"/>
+      <c r="E134" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F134" s="5"/>
+      <c r="G134" s="5"/>
     </row>
     <row r="135" ht="15" spans="1:7">
-      <c r="A135" s="5">
+      <c r="A135" s="4">
         <v>134</v>
       </c>
-      <c r="B135" s="6" t="s">
+      <c r="B135" s="5" t="s">
         <v>239</v>
       </c>
-      <c r="C135" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="D135" s="7">
+      <c r="C135" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D135" s="5">
         <v>123</v>
       </c>
-      <c r="E135" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="F135" s="7"/>
-      <c r="G135" s="7"/>
+      <c r="E135" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F135" s="5"/>
+      <c r="G135" s="5"/>
     </row>
     <row r="136" ht="15" spans="1:7">
-      <c r="A136" s="5">
+      <c r="A136" s="4">
         <v>135</v>
       </c>
-      <c r="B136" s="6" t="s">
+      <c r="B136" s="5" t="s">
         <v>242</v>
       </c>
-      <c r="C136" s="6" t="s">
+      <c r="C136" s="5" t="s">
         <v>243</v>
       </c>
-      <c r="D136" s="7">
+      <c r="D136" s="5">
         <v>123456</v>
       </c>
-      <c r="E136" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="F136" s="7"/>
-      <c r="G136" s="7"/>
+      <c r="E136" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F136" s="5"/>
+      <c r="G136" s="5"/>
     </row>
     <row r="137" ht="15" spans="1:7">
-      <c r="A137" s="5">
+      <c r="A137" s="4">
         <v>136</v>
       </c>
-      <c r="B137" s="6" t="s">
+      <c r="B137" s="5" t="s">
         <v>244</v>
       </c>
-      <c r="C137" s="6" t="s">
+      <c r="C137" s="5" t="s">
         <v>245</v>
       </c>
-      <c r="D137" s="7">
+      <c r="D137" s="5">
         <v>123456</v>
       </c>
-      <c r="E137" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="F137" s="7"/>
-      <c r="G137" s="7"/>
+      <c r="E137" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F137" s="5"/>
+      <c r="G137" s="5"/>
     </row>
     <row r="138" ht="15" spans="1:7">
-      <c r="A138" s="5">
+      <c r="A138" s="4">
         <v>137</v>
       </c>
-      <c r="B138" s="6" t="s">
+      <c r="B138" s="5" t="s">
         <v>246</v>
       </c>
-      <c r="C138" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="D138" s="7">
+      <c r="C138" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D138" s="5">
         <v>111111</v>
       </c>
-      <c r="E138" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="F138" s="7"/>
-      <c r="G138" s="7"/>
+      <c r="E138" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F138" s="5"/>
+      <c r="G138" s="5"/>
     </row>
     <row r="139" ht="15" spans="1:7">
-      <c r="A139" s="5">
+      <c r="A139" s="4">
         <v>138</v>
       </c>
-      <c r="B139" s="6" t="s">
+      <c r="B139" s="5" t="s">
         <v>247</v>
       </c>
-      <c r="C139" s="6" t="s">
+      <c r="C139" s="5" t="s">
         <v>248</v>
       </c>
-      <c r="D139" s="6" t="s">
+      <c r="D139" s="5" t="s">
         <v>248</v>
       </c>
-      <c r="E139" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="F139" s="7"/>
-      <c r="G139" s="7"/>
+      <c r="E139" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F139" s="5"/>
+      <c r="G139" s="5"/>
     </row>
     <row r="140" ht="15" spans="1:7">
-      <c r="A140" s="5">
+      <c r="A140" s="4">
         <v>139</v>
       </c>
-      <c r="B140" s="6" t="s">
+      <c r="B140" s="5" t="s">
         <v>249</v>
       </c>
-      <c r="C140" s="6" t="s">
+      <c r="C140" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="D140" s="6" t="s">
+      <c r="D140" s="5" t="s">
         <v>250</v>
       </c>
-      <c r="E140" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="F140" s="7"/>
-      <c r="G140" s="7"/>
+      <c r="E140" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F140" s="5"/>
+      <c r="G140" s="5"/>
     </row>
     <row r="141" ht="15" spans="1:7">
-      <c r="A141" s="5">
+      <c r="A141" s="4">
         <v>140</v>
       </c>
-      <c r="B141" s="6" t="s">
+      <c r="B141" s="5" t="s">
         <v>251</v>
       </c>
-      <c r="C141" s="6" t="s">
+      <c r="C141" s="5" t="s">
         <v>252</v>
       </c>
-      <c r="D141" s="6" t="s">
+      <c r="D141" s="5" t="s">
         <v>252</v>
       </c>
-      <c r="E141" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="F141" s="7"/>
-      <c r="G141" s="7"/>
+      <c r="E141" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F141" s="5"/>
+      <c r="G141" s="5"/>
     </row>
     <row r="142" ht="15" spans="1:7">
-      <c r="A142" s="5">
+      <c r="A142" s="4">
         <v>141</v>
       </c>
-      <c r="B142" s="6" t="s">
+      <c r="B142" s="5" t="s">
         <v>253</v>
       </c>
-      <c r="C142" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="D142" s="6" t="s">
+      <c r="C142" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D142" s="5" t="s">
         <v>150</v>
       </c>
-      <c r="E142" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="F142" s="7"/>
-      <c r="G142" s="7"/>
+      <c r="E142" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F142" s="5"/>
+      <c r="G142" s="5"/>
     </row>
     <row r="143" ht="15" spans="1:7">
-      <c r="A143" s="5">
+      <c r="A143" s="4">
         <v>142</v>
       </c>
-      <c r="B143" s="6" t="s">
+      <c r="B143" s="5" t="s">
         <v>254</v>
       </c>
-      <c r="C143" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="D143" s="6" t="s">
+      <c r="C143" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D143" s="5" t="s">
         <v>255</v>
       </c>
-      <c r="E143" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="F143" s="7"/>
-      <c r="G143" s="7"/>
+      <c r="E143" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F143" s="5"/>
+      <c r="G143" s="5"/>
     </row>
     <row r="144" ht="15" spans="1:7">
-      <c r="A144" s="5">
+      <c r="A144" s="4">
         <v>143</v>
       </c>
-      <c r="B144" s="6" t="s">
+      <c r="B144" s="5" t="s">
         <v>256</v>
       </c>
-      <c r="C144" s="6" t="s">
+      <c r="C144" s="5" t="s">
         <v>257</v>
       </c>
-      <c r="D144" s="6" t="s">
+      <c r="D144" s="5" t="s">
         <v>214</v>
       </c>
-      <c r="E144" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="F144" s="7"/>
-      <c r="G144" s="7"/>
+      <c r="E144" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F144" s="5"/>
+      <c r="G144" s="5"/>
     </row>
     <row r="145" ht="15" spans="1:7">
-      <c r="A145" s="5">
+      <c r="A145" s="4">
         <v>144</v>
       </c>
-      <c r="B145" s="6" t="s">
+      <c r="B145" s="5" t="s">
         <v>258</v>
       </c>
-      <c r="C145" s="6" t="s">
+      <c r="C145" s="5" t="s">
         <v>259</v>
       </c>
-      <c r="D145" s="7">
+      <c r="D145" s="5">
         <v>123456</v>
       </c>
-      <c r="E145" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="F145" s="7"/>
-      <c r="G145" s="7"/>
+      <c r="E145" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F145" s="5"/>
+      <c r="G145" s="5"/>
     </row>
     <row r="146" ht="15" spans="1:7">
-      <c r="A146" s="5">
+      <c r="A146" s="4">
         <v>145</v>
       </c>
-      <c r="B146" s="6" t="s">
+      <c r="B146" s="5" t="s">
         <v>260</v>
       </c>
-      <c r="C146" s="6" t="s">
+      <c r="C146" s="5" t="s">
         <v>261</v>
       </c>
-      <c r="D146" s="6" t="s">
+      <c r="D146" s="5" t="s">
         <v>262</v>
       </c>
-      <c r="E146" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="F146" s="6" t="s">
+      <c r="E146" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F146" s="5" t="s">
         <v>263</v>
       </c>
-      <c r="G146" s="7"/>
+      <c r="G146" s="5"/>
     </row>
     <row r="147" ht="15" spans="1:7">
-      <c r="A147" s="5">
+      <c r="A147" s="4">
         <v>146</v>
       </c>
-      <c r="B147" s="6" t="s">
+      <c r="B147" s="5" t="s">
         <v>260</v>
       </c>
-      <c r="C147" s="6" t="s">
+      <c r="C147" s="5" t="s">
         <v>264</v>
       </c>
-      <c r="D147" s="6" t="s">
+      <c r="D147" s="5" t="s">
         <v>262</v>
       </c>
-      <c r="E147" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="F147" s="6" t="s">
+      <c r="E147" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F147" s="5" t="s">
         <v>265</v>
       </c>
-      <c r="G147" s="7"/>
+      <c r="G147" s="5"/>
     </row>
     <row r="148" ht="15" spans="1:7">
-      <c r="A148" s="5">
+      <c r="A148" s="4">
         <v>147</v>
       </c>
-      <c r="B148" s="6" t="s">
+      <c r="B148" s="5" t="s">
         <v>266</v>
       </c>
-      <c r="C148" s="6" t="s">
+      <c r="C148" s="5" t="s">
         <v>267</v>
       </c>
-      <c r="D148" s="6" t="s">
+      <c r="D148" s="5" t="s">
         <v>268</v>
       </c>
-      <c r="E148" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="F148" s="7"/>
-      <c r="G148" s="6" t="s">
+      <c r="E148" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F148" s="5"/>
+      <c r="G148" s="5" t="s">
         <v>269</v>
       </c>
     </row>
     <row r="149" ht="15" spans="1:7">
-      <c r="A149" s="5">
+      <c r="A149" s="4">
         <v>148</v>
       </c>
-      <c r="B149" s="6" t="s">
+      <c r="B149" s="5" t="s">
         <v>270</v>
       </c>
-      <c r="C149" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="D149" s="6" t="s">
+      <c r="C149" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D149" s="5" t="s">
         <v>271</v>
       </c>
-      <c r="E149" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="F149" s="7"/>
-      <c r="G149" s="7"/>
+      <c r="E149" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F149" s="5"/>
+      <c r="G149" s="5"/>
     </row>
     <row r="150" ht="45" spans="1:7">
       <c r="A150" s="5">
         <v>149</v>
       </c>
-      <c r="B150" s="6" t="s">
+      <c r="B150" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="C150" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="D150" s="6" t="s">
+      <c r="C150" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D150" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="E150" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="F150" s="7"/>
-      <c r="G150" s="6" t="s">
+      <c r="E150" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F150" s="5"/>
+      <c r="G150" s="5" t="s">
         <v>272</v>
+      </c>
+    </row>
+    <row r="151" ht="45" spans="1:7">
+      <c r="A151" s="5" t="s">
+        <v>273</v>
+      </c>
+      <c r="B151" s="5" t="s">
+        <v>274</v>
+      </c>
+      <c r="C151" s="5" t="s">
+        <v>275</v>
+      </c>
+      <c r="D151" s="5" t="s">
+        <v>276</v>
+      </c>
+      <c r="E151" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F151" s="5"/>
+      <c r="G151" s="5" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="152" ht="15" spans="1:7">
+      <c r="A152" s="5" t="s">
+        <v>278</v>
+      </c>
+      <c r="B152" s="5" t="s">
+        <v>274</v>
+      </c>
+      <c r="C152" s="5" t="s">
+        <v>275</v>
+      </c>
+      <c r="D152" s="5" t="s">
+        <v>275</v>
+      </c>
+      <c r="E152" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F152" s="5"/>
+      <c r="G152" s="5"/>
+    </row>
+    <row r="153" ht="45" spans="1:7">
+      <c r="A153" s="5" t="s">
+        <v>279</v>
+      </c>
+      <c r="B153" s="5" t="s">
+        <v>280</v>
+      </c>
+      <c r="C153" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D153" s="5" t="s">
+        <v>281</v>
+      </c>
+      <c r="E153" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F153" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G153" s="5" t="s">
+        <v>282</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="C100" r:id="rId1" display="administrator@myems.io" tooltip="mailto:administrator@myems.io"/>
     <hyperlink ref="G107" r:id="rId2" display="项目地址：https://github.com/Hoshinonyaruko/palworld-go" tooltip="https://github.com/Hoshinonyaruko/palworld-go"/>
-    <hyperlink ref="G150" r:id="rId3" display="来源：https://support.huawei.com/enterprise/zh/doc/EDOC1100138471/e52be30" tooltip="https://support.huawei.com/enterprise/zh/doc/EDOC1100138471/e52be30"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/常见的系统(设备)默认口令收集.xlsx
+++ b/常见的系统(设备)默认口令收集.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="616" uniqueCount="283">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="640" uniqueCount="298">
   <si>
     <t>序号</t>
   </si>
@@ -876,6 +876,51 @@
   </si>
   <si>
     <t>来源：https://www.vinchin.cn/res/pdf/vinchin_backup_user_guide_v6.0.pdf</t>
+  </si>
+  <si>
+    <t>153</t>
+  </si>
+  <si>
+    <t>DockerUI</t>
+  </si>
+  <si>
+    <t>ginghan</t>
+  </si>
+  <si>
+    <t>来源：https://mp.weixin.qq.com/s/qDie20fgufgM9SCnSGPwEg</t>
+  </si>
+  <si>
+    <t>154</t>
+  </si>
+  <si>
+    <t>doclever</t>
+  </si>
+  <si>
+    <t>DOClever</t>
+  </si>
+  <si>
+    <t>155</t>
+  </si>
+  <si>
+    <t>亿赛通数据泄露防护（DLP）系统</t>
+  </si>
+  <si>
+    <t>Configadmin</t>
+  </si>
+  <si>
+    <t>配置管理员</t>
+  </si>
+  <si>
+    <t>156</t>
+  </si>
+  <si>
+    <t>Systemadmin</t>
+  </si>
+  <si>
+    <t>12345678</t>
+  </si>
+  <si>
+    <t>其他默认密码也可能是这个。</t>
   </si>
 </sst>
 </file>
@@ -888,7 +933,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="24">
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -911,13 +956,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color rgb="FF1F2328"/>
-      <name val="微软雅黑"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <u/>
       <sz val="10"/>
       <color rgb="FF1F2328"/>
       <name val="微软雅黑"/>
@@ -1409,137 +1447,137 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1556,9 +1594,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2086,10 +2121,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G153"/>
+  <dimension ref="A1:G157"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A138" workbookViewId="0">
-      <selection activeCell="E156" sqref="E156"/>
+    <sheetView tabSelected="1" topLeftCell="A151" workbookViewId="0">
+      <selection activeCell="D160" sqref="D160"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="12" outlineLevelCol="6"/>
@@ -4010,7 +4045,7 @@
       <c r="B100" s="5" t="s">
         <v>178</v>
       </c>
-      <c r="C100" s="6" t="s">
+      <c r="C100" s="5" t="s">
         <v>179</v>
       </c>
       <c r="D100" s="5" t="s">
@@ -5067,10 +5102,93 @@
         <v>282</v>
       </c>
     </row>
+    <row r="154" ht="45" spans="1:7">
+      <c r="A154" s="5" t="s">
+        <v>283</v>
+      </c>
+      <c r="B154" s="5" t="s">
+        <v>284</v>
+      </c>
+      <c r="C154" s="5" t="s">
+        <v>285</v>
+      </c>
+      <c r="D154" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="E154" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F154" s="5"/>
+      <c r="G154" s="5" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="155" ht="15" spans="1:7">
+      <c r="A155" s="5" t="s">
+        <v>287</v>
+      </c>
+      <c r="B155" s="5" t="s">
+        <v>288</v>
+      </c>
+      <c r="C155" s="5" t="s">
+        <v>289</v>
+      </c>
+      <c r="D155" s="5" t="s">
+        <v>289</v>
+      </c>
+      <c r="E155" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F155" s="5"/>
+      <c r="G155" s="5"/>
+    </row>
+    <row r="156" ht="15" spans="1:7">
+      <c r="A156" s="5" t="s">
+        <v>290</v>
+      </c>
+      <c r="B156" s="5" t="s">
+        <v>291</v>
+      </c>
+      <c r="C156" s="5" t="s">
+        <v>292</v>
+      </c>
+      <c r="D156" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="E156" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F156" s="5" t="s">
+        <v>293</v>
+      </c>
+      <c r="G156" s="5"/>
+    </row>
+    <row r="157" ht="15" spans="1:7">
+      <c r="A157" s="5" t="s">
+        <v>294</v>
+      </c>
+      <c r="B157" s="5" t="s">
+        <v>291</v>
+      </c>
+      <c r="C157" s="5" t="s">
+        <v>295</v>
+      </c>
+      <c r="D157" s="5" t="s">
+        <v>296</v>
+      </c>
+      <c r="E157" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F157" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="G157" s="5" t="s">
+        <v>297</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C100" r:id="rId1" display="administrator@myems.io" tooltip="mailto:administrator@myems.io"/>
-    <hyperlink ref="G107" r:id="rId2" display="项目地址：https://github.com/Hoshinonyaruko/palworld-go" tooltip="https://github.com/Hoshinonyaruko/palworld-go"/>
+    <hyperlink ref="G107" r:id="rId1" display="项目地址：https://github.com/Hoshinonyaruko/palworld-go" tooltip="https://github.com/Hoshinonyaruko/palworld-go"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/常见的系统(设备)默认口令收集.xlsx
+++ b/常见的系统(设备)默认口令收集.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="640" uniqueCount="298">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="662" uniqueCount="311">
   <si>
     <t>序号</t>
   </si>
@@ -170,7 +170,10 @@
     <t>华为FusionCompute 8.0</t>
   </si>
   <si>
-    <t>IaaS@PORTAL-CLOUD8!</t>
+    <t>IaaS@PORTAL-CLOUD8!（或者：LaaS@PORTAL-CLOUD8!）</t>
+  </si>
+  <si>
+    <t>普通模式</t>
   </si>
   <si>
     <t>华为FusionSphere</t>
@@ -446,9 +449,15 @@
     <t>三未信安 SRJ1909 设备</t>
   </si>
   <si>
+    <t>无</t>
+  </si>
+  <si>
     <t>swxa@1234</t>
   </si>
   <si>
+    <t>SJJ1860-G密码设备，也是该密码。</t>
+  </si>
+  <si>
     <t>SuperShell</t>
   </si>
   <si>
@@ -803,6 +812,9 @@
     <t>msgadmin</t>
   </si>
   <si>
+    <t>超级管理员（消息）</t>
+  </si>
+  <si>
     <t>若依druid控制台</t>
   </si>
   <si>
@@ -921,6 +933,33 @@
   </si>
   <si>
     <t>其他默认密码也可能是这个。</t>
+  </si>
+  <si>
+    <t>157</t>
+  </si>
+  <si>
+    <t>华为IVS OMU PORTAL</t>
+  </si>
+  <si>
+    <t>158</t>
+  </si>
+  <si>
+    <t>FusionCube 1000</t>
+  </si>
+  <si>
+    <t>robo</t>
+  </si>
+  <si>
+    <t>Huawei@123</t>
+  </si>
+  <si>
+    <t>ssh</t>
+  </si>
+  <si>
+    <t>来源：https://info.support.huawei.com/storage/docs/zh-cn/fusioncube-1000-6.0/documentation/Prepar_Deployment.html</t>
+  </si>
+  <si>
+    <t>159</t>
   </si>
 </sst>
 </file>
@@ -1577,7 +1616,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1595,6 +1634,9 @@
     </xf>
     <xf numFmtId="49" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -2121,10 +2163,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G157"/>
+  <dimension ref="A1:G160"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A151" workbookViewId="0">
-      <selection activeCell="D160" sqref="D160"/>
+    <sheetView tabSelected="1" topLeftCell="A60" workbookViewId="0">
+      <selection activeCell="D78" sqref="D78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="12" outlineLevelCol="6"/>
@@ -2132,7 +2174,7 @@
     <col min="1" max="1" width="9.44444444444444" style="1" customWidth="1"/>
     <col min="2" max="2" width="39.4444444444444" style="2" customWidth="1"/>
     <col min="3" max="3" width="23.5555555555556" style="2" customWidth="1"/>
-    <col min="4" max="4" width="22.8888888888889" style="2" customWidth="1"/>
+    <col min="4" max="4" width="36.3333333333333" style="2" customWidth="1"/>
     <col min="5" max="5" width="13.1111111111111" style="2" customWidth="1"/>
     <col min="6" max="6" width="10.8888888888889" style="2" customWidth="1"/>
     <col min="7" max="7" width="45.6666666666667" style="2" customWidth="1"/>
@@ -2573,27 +2615,29 @@
       <c r="C23" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="D23" s="5" t="s">
+      <c r="D23" s="6" t="s">
         <v>47</v>
       </c>
       <c r="E23" s="5" t="s">
         <v>9</v>
       </c>
       <c r="F23" s="5"/>
-      <c r="G23" s="5"/>
+      <c r="G23" s="5" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="24" ht="15" spans="1:7">
       <c r="A24" s="4">
         <v>23</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C24" s="5" t="s">
         <v>15</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E24" s="5" t="s">
         <v>9</v>
@@ -2606,13 +2650,13 @@
         <v>24</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C25" s="5" t="s">
         <v>15</v>
       </c>
       <c r="D25" s="5" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E25" s="5" t="s">
         <v>9</v>
@@ -2625,7 +2669,7 @@
         <v>25</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C26" s="5" t="s">
         <v>15</v>
@@ -2644,7 +2688,7 @@
         <v>26</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C27" s="5" t="s">
         <v>15</v>
@@ -2663,13 +2707,13 @@
         <v>27</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C28" s="5" t="s">
         <v>15</v>
       </c>
       <c r="D28" s="5" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E28" s="5" t="s">
         <v>9</v>
@@ -2682,20 +2726,20 @@
         <v>28</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D29" s="5" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E29" s="5" t="s">
         <v>9</v>
       </c>
       <c r="F29" s="5"/>
       <c r="G29" s="5" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="30" ht="15" spans="1:7">
@@ -2703,20 +2747,20 @@
         <v>29</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D30" s="5" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E30" s="5" t="s">
         <v>9</v>
       </c>
       <c r="F30" s="5"/>
       <c r="G30" s="5" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="31" ht="15" spans="1:7">
@@ -2724,7 +2768,7 @@
         <v>30</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C31" s="5" t="s">
         <v>15</v>
@@ -2743,13 +2787,13 @@
         <v>31</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C32" s="5" t="s">
         <v>15</v>
       </c>
       <c r="D32" s="5" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E32" s="5" t="s">
         <v>9</v>
@@ -2762,7 +2806,7 @@
         <v>32</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C33" s="5" t="s">
         <v>15</v>
@@ -2781,13 +2825,13 @@
         <v>33</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C34" s="5" t="s">
         <v>12</v>
       </c>
       <c r="D34" s="5" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E34" s="5" t="s">
         <v>9</v>
@@ -2800,13 +2844,13 @@
         <v>34</v>
       </c>
       <c r="B35" s="5" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C35" s="5" t="s">
         <v>12</v>
       </c>
       <c r="D35" s="5" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E35" s="5" t="s">
         <v>9</v>
@@ -2819,13 +2863,13 @@
         <v>35</v>
       </c>
       <c r="B36" s="5" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C36" s="5" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D36" s="5" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E36" s="5" t="s">
         <v>9</v>
@@ -2838,13 +2882,13 @@
         <v>36</v>
       </c>
       <c r="B37" s="5" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C37" s="5" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D37" s="5" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E37" s="5" t="s">
         <v>9</v>
@@ -2857,13 +2901,13 @@
         <v>37</v>
       </c>
       <c r="B38" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="C38" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="C38" s="5" t="s">
-        <v>72</v>
-      </c>
       <c r="D38" s="5" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E38" s="5" t="s">
         <v>9</v>
@@ -2876,7 +2920,7 @@
         <v>38</v>
       </c>
       <c r="B39" s="5" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C39" s="5" t="s">
         <v>15</v>
@@ -2895,7 +2939,7 @@
         <v>39</v>
       </c>
       <c r="B40" s="5" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C40" s="5" t="s">
         <v>15</v>
@@ -2914,10 +2958,10 @@
         <v>40</v>
       </c>
       <c r="B41" s="5" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C41" s="5" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D41" s="5" t="s">
         <v>15</v>
@@ -2933,13 +2977,13 @@
         <v>41</v>
       </c>
       <c r="B42" s="5" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C42" s="5" t="s">
         <v>15</v>
       </c>
       <c r="D42" s="5" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E42" s="5" t="s">
         <v>9</v>
@@ -2952,13 +2996,13 @@
         <v>42</v>
       </c>
       <c r="B43" s="5" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C43" s="5" t="s">
         <v>15</v>
       </c>
       <c r="D43" s="5" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E43" s="5" t="s">
         <v>9</v>
@@ -2971,7 +3015,7 @@
         <v>43</v>
       </c>
       <c r="B44" s="5" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C44" s="5" t="s">
         <v>15</v>
@@ -2990,13 +3034,13 @@
         <v>44</v>
       </c>
       <c r="B45" s="5" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C45" s="5" t="s">
         <v>15</v>
       </c>
       <c r="D45" s="5" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E45" s="5" t="s">
         <v>9</v>
@@ -3009,13 +3053,13 @@
         <v>45</v>
       </c>
       <c r="B46" s="5" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C46" s="5" t="s">
         <v>15</v>
       </c>
       <c r="D46" s="5" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E46" s="5" t="s">
         <v>9</v>
@@ -3028,13 +3072,13 @@
         <v>46</v>
       </c>
       <c r="B47" s="5" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C47" s="5" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D47" s="5" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E47" s="5" t="s">
         <v>9</v>
@@ -3047,7 +3091,7 @@
         <v>47</v>
       </c>
       <c r="B48" s="5" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C48" s="5" t="s">
         <v>15</v>
@@ -3066,13 +3110,13 @@
         <v>48</v>
       </c>
       <c r="B49" s="5" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C49" s="5" t="s">
         <v>15</v>
       </c>
       <c r="D49" s="5" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E49" s="5" t="s">
         <v>9</v>
@@ -3085,7 +3129,7 @@
         <v>49</v>
       </c>
       <c r="B50" s="5" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C50" s="5" t="s">
         <v>15</v>
@@ -3104,7 +3148,7 @@
         <v>50</v>
       </c>
       <c r="B51" s="5" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C51" s="5" t="s">
         <v>15</v>
@@ -3123,7 +3167,7 @@
         <v>51</v>
       </c>
       <c r="B52" s="5" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C52" s="5" t="s">
         <v>15</v>
@@ -3142,13 +3186,13 @@
         <v>52</v>
       </c>
       <c r="B53" s="5" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C53" s="5" t="s">
         <v>15</v>
       </c>
       <c r="D53" s="5" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="E53" s="5" t="s">
         <v>9</v>
@@ -3161,13 +3205,13 @@
         <v>53</v>
       </c>
       <c r="B54" s="5" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C54" s="5" t="s">
         <v>15</v>
       </c>
       <c r="D54" s="5" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E54" s="5" t="s">
         <v>9</v>
@@ -3180,13 +3224,13 @@
         <v>54</v>
       </c>
       <c r="B55" s="5" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C55" s="5" t="s">
         <v>15</v>
       </c>
       <c r="D55" s="5" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E55" s="5" t="s">
         <v>9</v>
@@ -3199,13 +3243,13 @@
         <v>55</v>
       </c>
       <c r="B56" s="5" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C56" s="5" t="s">
         <v>15</v>
       </c>
       <c r="D56" s="5" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E56" s="5" t="s">
         <v>9</v>
@@ -3218,13 +3262,13 @@
         <v>56</v>
       </c>
       <c r="B57" s="5" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C57" s="5" t="s">
         <v>15</v>
       </c>
       <c r="D57" s="5" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E57" s="5" t="s">
         <v>9</v>
@@ -3237,13 +3281,13 @@
         <v>57</v>
       </c>
       <c r="B58" s="5" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C58" s="5" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D58" s="5" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E58" s="5" t="s">
         <v>9</v>
@@ -3256,13 +3300,13 @@
         <v>58</v>
       </c>
       <c r="B59" s="5" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C59" s="5" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D59" s="5" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E59" s="5" t="s">
         <v>9</v>
@@ -3275,13 +3319,13 @@
         <v>59</v>
       </c>
       <c r="B60" s="5" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C60" s="5" t="s">
         <v>15</v>
       </c>
       <c r="D60" s="5" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="E60" s="5" t="s">
         <v>9</v>
@@ -3294,10 +3338,10 @@
         <v>60</v>
       </c>
       <c r="B61" s="5" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C61" s="5" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D61" s="5">
         <v>1</v>
@@ -3313,13 +3357,13 @@
         <v>61</v>
       </c>
       <c r="B62" s="5" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C62" s="5" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D62" s="5" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E62" s="5" t="s">
         <v>9</v>
@@ -3332,13 +3376,13 @@
         <v>62</v>
       </c>
       <c r="B63" s="5" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C63" s="5" t="s">
         <v>15</v>
       </c>
       <c r="D63" s="5" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="E63" s="5" t="s">
         <v>9</v>
@@ -3351,13 +3395,13 @@
         <v>63</v>
       </c>
       <c r="B64" s="5" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C64" s="5" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D64" s="5" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="E64" s="5" t="s">
         <v>9</v>
@@ -3370,10 +3414,10 @@
         <v>64</v>
       </c>
       <c r="B65" s="5" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C65" s="5" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D65" s="5">
         <v>123456</v>
@@ -3382,7 +3426,7 @@
         <v>9</v>
       </c>
       <c r="F65" s="5" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="G65" s="5"/>
     </row>
@@ -3391,7 +3435,7 @@
         <v>65</v>
       </c>
       <c r="B66" s="5" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C66" s="5" t="s">
         <v>15</v>
@@ -3410,13 +3454,13 @@
         <v>66</v>
       </c>
       <c r="B67" s="5" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C67" s="5" t="s">
         <v>15</v>
       </c>
       <c r="D67" s="5" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="E67" s="5" t="s">
         <v>9</v>
@@ -3429,7 +3473,7 @@
         <v>67</v>
       </c>
       <c r="B68" s="5" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C68" s="5" t="s">
         <v>15</v>
@@ -3448,7 +3492,7 @@
         <v>68</v>
       </c>
       <c r="B69" s="5" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C69" s="5" t="s">
         <v>15</v>
@@ -3467,7 +3511,7 @@
         <v>69</v>
       </c>
       <c r="B70" s="5" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C70" s="5" t="s">
         <v>15</v>
@@ -3486,13 +3530,13 @@
         <v>70</v>
       </c>
       <c r="B71" s="5" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C71" s="5" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="D71" s="5" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="E71" s="5" t="s">
         <v>9</v>
@@ -3505,13 +3549,13 @@
         <v>71</v>
       </c>
       <c r="B72" s="5" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C72" s="5" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="D72" s="5" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="E72" s="5" t="s">
         <v>9</v>
@@ -3524,7 +3568,7 @@
         <v>72</v>
       </c>
       <c r="B73" s="5" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C73" s="5" t="s">
         <v>15</v>
@@ -3543,10 +3587,10 @@
         <v>73</v>
       </c>
       <c r="B74" s="5" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C74" s="5" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D74" s="5" t="s">
         <v>15</v>
@@ -3562,13 +3606,13 @@
         <v>74</v>
       </c>
       <c r="B75" s="5" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C75" s="5" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="D75" s="5" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="E75" s="5" t="s">
         <v>9</v>
@@ -3581,7 +3625,7 @@
         <v>75</v>
       </c>
       <c r="B76" s="5" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C76" s="5" t="s">
         <v>44</v>
@@ -3600,32 +3644,34 @@
         <v>76</v>
       </c>
       <c r="B77" s="5" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C77" s="5" t="s">
-        <v>134</v>
+        <v>140</v>
       </c>
       <c r="D77" s="5" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="E77" s="5" t="s">
         <v>9</v>
       </c>
       <c r="F77" s="5"/>
-      <c r="G77" s="5"/>
+      <c r="G77" s="5" t="s">
+        <v>142</v>
+      </c>
     </row>
     <row r="78" ht="15" spans="1:7">
       <c r="A78" s="4">
         <v>77</v>
       </c>
       <c r="B78" s="5" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="C78" s="5" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="D78" s="5" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="E78" s="5" t="s">
         <v>9</v>
@@ -3638,7 +3684,7 @@
         <v>78</v>
       </c>
       <c r="B79" s="5" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="C79" s="5" t="s">
         <v>15</v>
@@ -3657,7 +3703,7 @@
         <v>79</v>
       </c>
       <c r="B80" s="5" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="C80" s="5" t="s">
         <v>15</v>
@@ -3676,7 +3722,7 @@
         <v>80</v>
       </c>
       <c r="B81" s="5" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="C81" s="5" t="s">
         <v>15</v>
@@ -3695,7 +3741,7 @@
         <v>81</v>
       </c>
       <c r="B82" s="5" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="C82" s="5" t="s">
         <v>15</v>
@@ -3714,13 +3760,13 @@
         <v>82</v>
       </c>
       <c r="B83" s="5" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="C83" s="5" t="s">
         <v>15</v>
       </c>
       <c r="D83" s="5" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="E83" s="5" t="s">
         <v>9</v>
@@ -3733,7 +3779,7 @@
         <v>83</v>
       </c>
       <c r="B84" s="5" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="C84" s="5" t="s">
         <v>15</v>
@@ -3752,19 +3798,19 @@
         <v>84</v>
       </c>
       <c r="B85" s="5" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="C85" s="5" t="s">
         <v>15</v>
       </c>
       <c r="D85" s="5" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="E85" s="5" t="s">
         <v>9</v>
       </c>
       <c r="F85" s="5" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="G85" s="5"/>
     </row>
@@ -3773,19 +3819,19 @@
         <v>85</v>
       </c>
       <c r="B86" s="5" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="C86" s="5" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="D86" s="5" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="E86" s="5" t="s">
         <v>9</v>
       </c>
       <c r="F86" s="5" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="G86" s="5"/>
     </row>
@@ -3794,10 +3840,10 @@
         <v>86</v>
       </c>
       <c r="B87" s="5" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="C87" s="5" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="D87" s="5" t="s">
         <v>15</v>
@@ -3813,7 +3859,7 @@
         <v>87</v>
       </c>
       <c r="B88" s="5" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="C88" s="5">
         <v>9999</v>
@@ -3832,10 +3878,10 @@
         <v>88</v>
       </c>
       <c r="B89" s="5" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="C89" s="5" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="D89" s="5">
         <v>123456</v>
@@ -3844,7 +3890,7 @@
         <v>9</v>
       </c>
       <c r="F89" s="5" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="G89" s="5"/>
     </row>
@@ -3853,10 +3899,10 @@
         <v>89</v>
       </c>
       <c r="B90" s="5" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="C90" s="5" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="D90" s="5">
         <v>123456</v>
@@ -3872,13 +3918,13 @@
         <v>90</v>
       </c>
       <c r="B91" s="5" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C91" s="5" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D91" s="5" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="E91" s="5" t="s">
         <v>9</v>
@@ -3891,13 +3937,13 @@
         <v>91</v>
       </c>
       <c r="B92" s="5" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="C92" s="5" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D92" s="5" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E92" s="5" t="s">
         <v>9</v>
@@ -3910,10 +3956,10 @@
         <v>92</v>
       </c>
       <c r="B93" s="5" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="C93" s="5" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="D93" s="5">
         <v>123456</v>
@@ -3929,13 +3975,13 @@
         <v>93</v>
       </c>
       <c r="B94" s="5" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="C94" s="5" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="D94" s="5" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="E94" s="5" t="s">
         <v>9</v>
@@ -3948,13 +3994,13 @@
         <v>94</v>
       </c>
       <c r="B95" s="5" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="C95" s="5" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="D95" s="5" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="E95" s="5" t="s">
         <v>9</v>
@@ -3967,13 +4013,13 @@
         <v>95</v>
       </c>
       <c r="B96" s="5" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="C96" s="5" t="s">
         <v>15</v>
       </c>
       <c r="D96" s="5" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="E96" s="5" t="s">
         <v>9</v>
@@ -3986,13 +4032,13 @@
         <v>96</v>
       </c>
       <c r="B97" s="5" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="C97" s="5" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="D97" s="5" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="E97" s="5" t="s">
         <v>9</v>
@@ -4005,10 +4051,10 @@
         <v>97</v>
       </c>
       <c r="B98" s="5" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="C98" s="5" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="D98" s="5">
         <v>800823</v>
@@ -4024,13 +4070,13 @@
         <v>98</v>
       </c>
       <c r="B99" s="5" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="C99" s="5" t="s">
         <v>12</v>
       </c>
       <c r="D99" s="5" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="E99" s="5" t="s">
         <v>9</v>
@@ -4043,13 +4089,13 @@
         <v>99</v>
       </c>
       <c r="B100" s="5" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="C100" s="5" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="D100" s="5" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="E100" s="5" t="s">
         <v>9</v>
@@ -4062,13 +4108,13 @@
         <v>100</v>
       </c>
       <c r="B101" s="5" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="C101" s="5" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="D101" s="5" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="E101" s="5" t="s">
         <v>9</v>
@@ -4081,13 +4127,13 @@
         <v>101</v>
       </c>
       <c r="B102" s="5" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="C102" s="5" t="s">
         <v>15</v>
       </c>
       <c r="D102" s="5" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="E102" s="5" t="s">
         <v>9</v>
@@ -4100,7 +4146,7 @@
         <v>102</v>
       </c>
       <c r="B103" s="5" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="C103" s="5" t="s">
         <v>15</v>
@@ -4113,7 +4159,7 @@
       </c>
       <c r="F103" s="5"/>
       <c r="G103" s="5" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
     </row>
     <row r="104" ht="15" spans="1:7">
@@ -4121,10 +4167,10 @@
         <v>103</v>
       </c>
       <c r="B104" s="5" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="C104" s="5" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="D104" s="5">
         <v>111111</v>
@@ -4140,13 +4186,13 @@
         <v>104</v>
       </c>
       <c r="B105" s="5" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="C105" s="5" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="D105" s="5" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="E105" s="5" t="s">
         <v>9</v>
@@ -4159,13 +4205,13 @@
         <v>105</v>
       </c>
       <c r="B106" s="5" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="C106" s="5" t="s">
         <v>15</v>
       </c>
       <c r="D106" s="5" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="E106" s="5" t="s">
         <v>9</v>
@@ -4178,10 +4224,10 @@
         <v>106</v>
       </c>
       <c r="B107" s="5" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="C107" s="5" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="D107" s="5" t="s">
         <v>32</v>
@@ -4191,7 +4237,7 @@
       </c>
       <c r="F107" s="5"/>
       <c r="G107" s="5" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
     </row>
     <row r="108" ht="15" spans="1:7">
@@ -4199,13 +4245,13 @@
         <v>107</v>
       </c>
       <c r="B108" s="5" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="C108" s="5" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="D108" s="5" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="E108" s="5" t="s">
         <v>9</v>
@@ -4218,7 +4264,7 @@
         <v>108</v>
       </c>
       <c r="B109" s="5" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="C109" s="5" t="s">
         <v>23</v>
@@ -4230,7 +4276,7 @@
         <v>9</v>
       </c>
       <c r="F109" s="5" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="G109" s="5"/>
     </row>
@@ -4239,19 +4285,19 @@
         <v>109</v>
       </c>
       <c r="B110" s="5" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="C110" s="5" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="D110" s="5" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E110" s="5" t="s">
         <v>9</v>
       </c>
       <c r="F110" s="5" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="G110" s="5"/>
     </row>
@@ -4260,10 +4306,10 @@
         <v>110</v>
       </c>
       <c r="B111" s="5" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="C111" s="5" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="D111" s="5">
         <v>123456</v>
@@ -4272,7 +4318,7 @@
         <v>9</v>
       </c>
       <c r="F111" s="5" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="G111" s="5"/>
     </row>
@@ -4281,10 +4327,10 @@
         <v>111</v>
       </c>
       <c r="B112" s="5" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="C112" s="5" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="D112" s="5">
         <v>123456</v>
@@ -4293,7 +4339,7 @@
         <v>9</v>
       </c>
       <c r="F112" s="5" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="G112" s="5"/>
     </row>
@@ -4302,10 +4348,10 @@
         <v>112</v>
       </c>
       <c r="B113" s="5" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="C113" s="5" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="D113" s="5">
         <v>123456</v>
@@ -4314,7 +4360,7 @@
         <v>9</v>
       </c>
       <c r="F113" s="5" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="G113" s="5"/>
     </row>
@@ -4323,10 +4369,10 @@
         <v>113</v>
       </c>
       <c r="B114" s="5" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="C114" s="5" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="D114" s="5">
         <v>123456</v>
@@ -4335,7 +4381,7 @@
         <v>9</v>
       </c>
       <c r="F114" s="5" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="G114" s="5"/>
     </row>
@@ -4344,10 +4390,10 @@
         <v>114</v>
       </c>
       <c r="B115" s="5" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="C115" s="5" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="D115" s="5">
         <v>123456</v>
@@ -4356,7 +4402,7 @@
         <v>9</v>
       </c>
       <c r="F115" s="5" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="G115" s="5"/>
     </row>
@@ -4365,13 +4411,13 @@
         <v>115</v>
       </c>
       <c r="B116" s="5" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="C116" s="5" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="D116" s="5" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="E116" s="5" t="s">
         <v>9</v>
@@ -4384,13 +4430,13 @@
         <v>116</v>
       </c>
       <c r="B117" s="5" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="C117" s="5" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="D117" s="5" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="E117" s="5" t="s">
         <v>9</v>
@@ -4403,18 +4449,20 @@
         <v>117</v>
       </c>
       <c r="B118" s="5" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="C118" s="5" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D118" s="5" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="E118" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="F118" s="5"/>
+      <c r="F118" s="5" t="s">
+        <v>154</v>
+      </c>
       <c r="G118" s="5"/>
     </row>
     <row r="119" ht="15" spans="1:7">
@@ -4422,10 +4470,10 @@
         <v>118</v>
       </c>
       <c r="B119" s="5" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="C119" s="5" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D119" s="5">
         <v>123456</v>
@@ -4441,7 +4489,7 @@
         <v>119</v>
       </c>
       <c r="B120" s="5" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="C120" s="5" t="s">
         <v>15</v>
@@ -4460,10 +4508,10 @@
         <v>120</v>
       </c>
       <c r="B121" s="5" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="C121" s="5" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="D121" s="5">
         <v>123456</v>
@@ -4479,19 +4527,19 @@
         <v>121</v>
       </c>
       <c r="B122" s="5" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="C122" s="5" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="D122" s="5" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="E122" s="5" t="s">
         <v>9</v>
       </c>
       <c r="F122" s="5" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="G122" s="5"/>
     </row>
@@ -4500,19 +4548,19 @@
         <v>122</v>
       </c>
       <c r="B123" s="5" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="C123" s="5" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="D123" s="5" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="E123" s="5" t="s">
         <v>9</v>
       </c>
       <c r="F123" s="5" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="G123" s="5"/>
     </row>
@@ -4521,7 +4569,7 @@
         <v>123</v>
       </c>
       <c r="B124" s="5" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="C124" s="5" t="s">
         <v>15</v>
@@ -4534,7 +4582,7 @@
       </c>
       <c r="F124" s="5"/>
       <c r="G124" s="5" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
     </row>
     <row r="125" ht="15" spans="1:7">
@@ -4542,13 +4590,13 @@
         <v>124</v>
       </c>
       <c r="B125" s="5" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="C125" s="5" t="s">
         <v>15</v>
       </c>
       <c r="D125" s="5" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="E125" s="5" t="s">
         <v>9</v>
@@ -4561,13 +4609,13 @@
         <v>125</v>
       </c>
       <c r="B126" s="5" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="C126" s="5" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="D126" s="5" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="E126" s="5" t="s">
         <v>9</v>
@@ -4580,13 +4628,13 @@
         <v>126</v>
       </c>
       <c r="B127" s="5" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="C127" s="5" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="D127" s="5" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="E127" s="5" t="s">
         <v>9</v>
@@ -4599,13 +4647,13 @@
         <v>127</v>
       </c>
       <c r="B128" s="5" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="C128" s="5" t="s">
         <v>15</v>
       </c>
       <c r="D128" s="5" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="E128" s="5" t="s">
         <v>9</v>
@@ -4618,13 +4666,13 @@
         <v>128</v>
       </c>
       <c r="B129" s="5" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="C129" s="5" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="D129" s="5" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="E129" s="5" t="s">
         <v>9</v>
@@ -4637,7 +4685,7 @@
         <v>129</v>
       </c>
       <c r="B130" s="5" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="C130" s="5" t="s">
         <v>15</v>
@@ -4656,13 +4704,13 @@
         <v>130</v>
       </c>
       <c r="B131" s="5" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="C131" s="5" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="D131" s="5" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="E131" s="5" t="s">
         <v>9</v>
@@ -4675,13 +4723,13 @@
         <v>131</v>
       </c>
       <c r="B132" s="5" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="C132" s="5" t="s">
         <v>15</v>
       </c>
       <c r="D132" s="5" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="E132" s="5" t="s">
         <v>9</v>
@@ -4694,7 +4742,7 @@
         <v>132</v>
       </c>
       <c r="B133" s="5" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="C133" s="5" t="s">
         <v>15</v>
@@ -4713,13 +4761,13 @@
         <v>133</v>
       </c>
       <c r="B134" s="5" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="C134" s="5" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="D134" s="5" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="E134" s="5" t="s">
         <v>9</v>
@@ -4732,7 +4780,7 @@
         <v>134</v>
       </c>
       <c r="B135" s="5" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="C135" s="5" t="s">
         <v>15</v>
@@ -4751,10 +4799,10 @@
         <v>135</v>
       </c>
       <c r="B136" s="5" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="C136" s="5" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="D136" s="5">
         <v>123456</v>
@@ -4770,10 +4818,10 @@
         <v>136</v>
       </c>
       <c r="B137" s="5" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="C137" s="5" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="D137" s="5">
         <v>123456</v>
@@ -4789,7 +4837,7 @@
         <v>137</v>
       </c>
       <c r="B138" s="5" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="C138" s="5" t="s">
         <v>15</v>
@@ -4808,13 +4856,13 @@
         <v>138</v>
       </c>
       <c r="B139" s="5" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="C139" s="5" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="D139" s="5" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="E139" s="5" t="s">
         <v>9</v>
@@ -4827,13 +4875,13 @@
         <v>139</v>
       </c>
       <c r="B140" s="5" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="C140" s="5" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D140" s="5" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="E140" s="5" t="s">
         <v>9</v>
@@ -4846,13 +4894,13 @@
         <v>140</v>
       </c>
       <c r="B141" s="5" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="C141" s="5" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="D141" s="5" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="E141" s="5" t="s">
         <v>9</v>
@@ -4865,13 +4913,13 @@
         <v>141</v>
       </c>
       <c r="B142" s="5" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="C142" s="5" t="s">
         <v>15</v>
       </c>
       <c r="D142" s="5" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="E142" s="5" t="s">
         <v>9</v>
@@ -4884,13 +4932,13 @@
         <v>142</v>
       </c>
       <c r="B143" s="5" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="C143" s="5" t="s">
         <v>15</v>
       </c>
       <c r="D143" s="5" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="E143" s="5" t="s">
         <v>9</v>
@@ -4898,23 +4946,25 @@
       <c r="F143" s="5"/>
       <c r="G143" s="5"/>
     </row>
-    <row r="144" ht="15" spans="1:7">
+    <row r="144" ht="30" spans="1:7">
       <c r="A144" s="4">
         <v>143</v>
       </c>
       <c r="B144" s="5" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="C144" s="5" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="D144" s="5" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="E144" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="F144" s="5"/>
+      <c r="F144" s="5" t="s">
+        <v>261</v>
+      </c>
       <c r="G144" s="5"/>
     </row>
     <row r="145" ht="15" spans="1:7">
@@ -4922,10 +4972,10 @@
         <v>144</v>
       </c>
       <c r="B145" s="5" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="C145" s="5" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="D145" s="5">
         <v>123456</v>
@@ -4941,19 +4991,19 @@
         <v>145</v>
       </c>
       <c r="B146" s="5" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="C146" s="5" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="D146" s="5" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="E146" s="5" t="s">
         <v>9</v>
       </c>
       <c r="F146" s="5" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="G146" s="5"/>
     </row>
@@ -4962,19 +5012,19 @@
         <v>146</v>
       </c>
       <c r="B147" s="5" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="C147" s="5" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="D147" s="5" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="E147" s="5" t="s">
         <v>9</v>
       </c>
       <c r="F147" s="5" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="G147" s="5"/>
     </row>
@@ -4983,20 +5033,20 @@
         <v>147</v>
       </c>
       <c r="B148" s="5" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="C148" s="5" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="D148" s="5" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="E148" s="5" t="s">
         <v>9</v>
       </c>
       <c r="F148" s="5"/>
       <c r="G148" s="5" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
     </row>
     <row r="149" ht="15" spans="1:7">
@@ -5004,13 +5054,13 @@
         <v>148</v>
       </c>
       <c r="B149" s="5" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="C149" s="5" t="s">
         <v>15</v>
       </c>
       <c r="D149" s="5" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="E149" s="5" t="s">
         <v>9</v>
@@ -5023,55 +5073,55 @@
         <v>149</v>
       </c>
       <c r="B150" s="5" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C150" s="5" t="s">
         <v>15</v>
       </c>
       <c r="D150" s="5" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E150" s="5" t="s">
         <v>9</v>
       </c>
       <c r="F150" s="5"/>
       <c r="G150" s="5" t="s">
-        <v>272</v>
+        <v>276</v>
       </c>
     </row>
     <row r="151" ht="45" spans="1:7">
       <c r="A151" s="5" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="B151" s="5" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="C151" s="5" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="D151" s="5" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="E151" s="5" t="s">
         <v>9</v>
       </c>
       <c r="F151" s="5"/>
       <c r="G151" s="5" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
     </row>
     <row r="152" ht="15" spans="1:7">
       <c r="A152" s="5" t="s">
+        <v>282</v>
+      </c>
+      <c r="B152" s="5" t="s">
         <v>278</v>
       </c>
-      <c r="B152" s="5" t="s">
-        <v>274</v>
-      </c>
       <c r="C152" s="5" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="D152" s="5" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="E152" s="5" t="s">
         <v>9</v>
@@ -5081,16 +5131,16 @@
     </row>
     <row r="153" ht="45" spans="1:7">
       <c r="A153" s="5" t="s">
-        <v>279</v>
+        <v>283</v>
       </c>
       <c r="B153" s="5" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
       <c r="C153" s="5" t="s">
         <v>15</v>
       </c>
       <c r="D153" s="5" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="E153" s="5" t="s">
         <v>9</v>
@@ -5099,42 +5149,42 @@
         <v>10</v>
       </c>
       <c r="G153" s="5" t="s">
-        <v>282</v>
+        <v>286</v>
       </c>
     </row>
     <row r="154" ht="45" spans="1:7">
       <c r="A154" s="5" t="s">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="B154" s="5" t="s">
-        <v>284</v>
+        <v>288</v>
       </c>
       <c r="C154" s="5" t="s">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="D154" s="5" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E154" s="5" t="s">
         <v>9</v>
       </c>
       <c r="F154" s="5"/>
       <c r="G154" s="5" t="s">
-        <v>286</v>
+        <v>290</v>
       </c>
     </row>
     <row r="155" ht="15" spans="1:7">
       <c r="A155" s="5" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="B155" s="5" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="C155" s="5" t="s">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="D155" s="5" t="s">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="E155" s="5" t="s">
         <v>9</v>
@@ -5144,46 +5194,109 @@
     </row>
     <row r="156" ht="15" spans="1:7">
       <c r="A156" s="5" t="s">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="B156" s="5" t="s">
-        <v>291</v>
+        <v>295</v>
       </c>
       <c r="C156" s="5" t="s">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="D156" s="5" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E156" s="5" t="s">
         <v>9</v>
       </c>
       <c r="F156" s="5" t="s">
-        <v>293</v>
+        <v>297</v>
       </c>
       <c r="G156" s="5"/>
     </row>
     <row r="157" ht="15" spans="1:7">
       <c r="A157" s="5" t="s">
-        <v>294</v>
+        <v>298</v>
       </c>
       <c r="B157" s="5" t="s">
-        <v>291</v>
+        <v>295</v>
       </c>
       <c r="C157" s="5" t="s">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="D157" s="5" t="s">
-        <v>296</v>
+        <v>300</v>
       </c>
       <c r="E157" s="5" t="s">
         <v>9</v>
       </c>
       <c r="F157" s="5" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="G157" s="5" t="s">
-        <v>297</v>
+        <v>301</v>
+      </c>
+    </row>
+    <row r="158" ht="15" spans="1:7">
+      <c r="A158" s="5" t="s">
+        <v>302</v>
+      </c>
+      <c r="B158" s="5" t="s">
+        <v>303</v>
+      </c>
+      <c r="C158" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D158" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="E158" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F158" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G158" s="5"/>
+    </row>
+    <row r="159" ht="60" spans="1:7">
+      <c r="A159" s="5" t="s">
+        <v>304</v>
+      </c>
+      <c r="B159" s="5" t="s">
+        <v>305</v>
+      </c>
+      <c r="C159" s="5" t="s">
+        <v>306</v>
+      </c>
+      <c r="D159" s="5" t="s">
+        <v>307</v>
+      </c>
+      <c r="E159" s="5" t="s">
+        <v>308</v>
+      </c>
+      <c r="F159" s="5"/>
+      <c r="G159" s="5" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="160" ht="60" spans="1:7">
+      <c r="A160" s="5" t="s">
+        <v>310</v>
+      </c>
+      <c r="B160" s="5" t="s">
+        <v>305</v>
+      </c>
+      <c r="C160" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D160" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="E160" s="5" t="s">
+        <v>308</v>
+      </c>
+      <c r="F160" s="5"/>
+      <c r="G160" s="5" t="s">
+        <v>309</v>
       </c>
     </row>
   </sheetData>

--- a/常见的系统(设备)默认口令收集.xlsx
+++ b/常见的系统(设备)默认口令收集.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="662" uniqueCount="311">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="679" uniqueCount="323">
   <si>
     <t>序号</t>
   </si>
@@ -960,6 +960,42 @@
   </si>
   <si>
     <t>159</t>
+  </si>
+  <si>
+    <t>160</t>
+  </si>
+  <si>
+    <t>红帆OA</t>
+  </si>
+  <si>
+    <t>Everyone</t>
+  </si>
+  <si>
+    <t>111111</t>
+  </si>
+  <si>
+    <t>161</t>
+  </si>
+  <si>
+    <t>Alibaba Sentinel</t>
+  </si>
+  <si>
+    <t>sentinel</t>
+  </si>
+  <si>
+    <t>app="Sentinel-Dashboard"</t>
+  </si>
+  <si>
+    <t>162</t>
+  </si>
+  <si>
+    <t>JEEMES</t>
+  </si>
+  <si>
+    <t>llg123</t>
+  </si>
+  <si>
+    <t>来源：https://gitee.com/erzhongxmu/JEEWMS</t>
   </si>
 </sst>
 </file>
@@ -2163,10 +2199,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G160"/>
+  <dimension ref="A1:G163"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A60" workbookViewId="0">
-      <selection activeCell="D78" sqref="D78"/>
+    <sheetView tabSelected="1" topLeftCell="A153" workbookViewId="0">
+      <selection activeCell="A160" sqref="A160"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="12" outlineLevelCol="6"/>
@@ -5299,6 +5335,67 @@
         <v>309</v>
       </c>
     </row>
+    <row r="161" ht="23" customHeight="1" spans="1:7">
+      <c r="A161" s="5" t="s">
+        <v>311</v>
+      </c>
+      <c r="B161" s="5" t="s">
+        <v>312</v>
+      </c>
+      <c r="C161" s="5" t="s">
+        <v>313</v>
+      </c>
+      <c r="D161" s="5" t="s">
+        <v>314</v>
+      </c>
+      <c r="E161" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F161" s="5"/>
+      <c r="G161" s="5"/>
+    </row>
+    <row r="162" ht="15" spans="1:7">
+      <c r="A162" s="5" t="s">
+        <v>315</v>
+      </c>
+      <c r="B162" s="5" t="s">
+        <v>316</v>
+      </c>
+      <c r="C162" s="5" t="s">
+        <v>317</v>
+      </c>
+      <c r="D162" s="5" t="s">
+        <v>317</v>
+      </c>
+      <c r="E162" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F162" s="5"/>
+      <c r="G162" s="5" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="163" ht="15" spans="1:7">
+      <c r="A163" s="5" t="s">
+        <v>319</v>
+      </c>
+      <c r="B163" s="5" t="s">
+        <v>320</v>
+      </c>
+      <c r="C163" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D163" s="5" t="s">
+        <v>321</v>
+      </c>
+      <c r="E163" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F163" s="5"/>
+      <c r="G163" s="5" t="s">
+        <v>322</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="G107" r:id="rId1" display="项目地址：https://github.com/Hoshinonyaruko/palworld-go" tooltip="https://github.com/Hoshinonyaruko/palworld-go"/>

--- a/常见的系统(设备)默认口令收集.xlsx
+++ b/常见的系统(设备)默认口令收集.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:dbsheet="http://web.wps.cn/et/2021/dbsheet">
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9180"/>
+    <workbookView windowWidth="22188" windowHeight="9180"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="721" uniqueCount="349">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="759" uniqueCount="370">
   <si>
     <t>常见的系统/设备默认口令收集</t>
   </si>
@@ -1074,6 +1074,69 @@
   </si>
   <si>
     <t>新版本（7.3 E0706及以后）‌</t>
+  </si>
+  <si>
+    <t>东方通TongWeb控制台</t>
+  </si>
+  <si>
+    <t>thanos</t>
+  </si>
+  <si>
+    <t>thanos123.com</t>
+  </si>
+  <si>
+    <t>TongWeb 7.0及部分其他版本</t>
+  </si>
+  <si>
+    <t>twnt</t>
+  </si>
+  <si>
+    <t>twnt123.com</t>
+  </si>
+  <si>
+    <t>部分旧版本</t>
+  </si>
+  <si>
+    <t>东方通THS(TongHttpServer)管理控制台</t>
+  </si>
+  <si>
+    <t>Ths#123.com</t>
+  </si>
+  <si>
+    <t>昆明奥远科技有限公司开发的网站后台管理系统</t>
+  </si>
+  <si>
+    <t>webmanager</t>
+  </si>
+  <si>
+    <t>aykj007_</t>
+  </si>
+  <si>
+    <t>173</t>
+  </si>
+  <si>
+    <t>IBM WebSphere 管理控制台</t>
+  </si>
+  <si>
+    <t>wasadmin</t>
+  </si>
+  <si>
+    <t>路径：/ibm/console/</t>
+  </si>
+  <si>
+    <t>fastcms</t>
+  </si>
+  <si>
+    <t>WGCLOUD</t>
+  </si>
+  <si>
+    <t>176</t>
+  </si>
+  <si>
+    <t>openwebui</t>
+  </si>
+  <si>
+    <t>admin@localhost</t>
   </si>
 </sst>
 </file>
@@ -2372,10 +2435,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G176"/>
+  <dimension ref="A1:G184"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A158" workbookViewId="0">
-      <selection activeCell="E178" sqref="E178"/>
+    <sheetView tabSelected="1" topLeftCell="A171" workbookViewId="0">
+      <selection activeCell="D189" sqref="D189"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="12" outlineLevelCol="6"/>
@@ -5770,6 +5833,170 @@
         <v>348</v>
       </c>
     </row>
+    <row r="177" ht="15" spans="1:7">
+      <c r="A177" s="18">
+        <v>169</v>
+      </c>
+      <c r="B177" s="18" t="s">
+        <v>349</v>
+      </c>
+      <c r="C177" s="18" t="s">
+        <v>350</v>
+      </c>
+      <c r="D177" s="18" t="s">
+        <v>351</v>
+      </c>
+      <c r="E177" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="F177" s="18"/>
+      <c r="G177" s="18" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="178" ht="15" spans="1:7">
+      <c r="A178" s="18">
+        <v>170</v>
+      </c>
+      <c r="B178" s="18" t="s">
+        <v>349</v>
+      </c>
+      <c r="C178" s="18" t="s">
+        <v>353</v>
+      </c>
+      <c r="D178" s="18" t="s">
+        <v>354</v>
+      </c>
+      <c r="E178" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="F178" s="18"/>
+      <c r="G178" s="18" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="179" ht="15" spans="1:7">
+      <c r="A179" s="18">
+        <v>171</v>
+      </c>
+      <c r="B179" s="18" t="s">
+        <v>356</v>
+      </c>
+      <c r="C179" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="D179" s="18" t="s">
+        <v>357</v>
+      </c>
+      <c r="E179" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="F179" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="G179" s="18"/>
+    </row>
+    <row r="180" ht="30" spans="1:7">
+      <c r="A180" s="18">
+        <v>172</v>
+      </c>
+      <c r="B180" s="18" t="s">
+        <v>358</v>
+      </c>
+      <c r="C180" s="18" t="s">
+        <v>359</v>
+      </c>
+      <c r="D180" s="18" t="s">
+        <v>360</v>
+      </c>
+      <c r="E180" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="F180" s="18"/>
+      <c r="G180" s="18"/>
+    </row>
+    <row r="181" ht="15" spans="1:7">
+      <c r="A181" s="18" t="s">
+        <v>361</v>
+      </c>
+      <c r="B181" s="18" t="s">
+        <v>362</v>
+      </c>
+      <c r="C181" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="D181" s="18" t="s">
+        <v>363</v>
+      </c>
+      <c r="E181" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="F181" s="18"/>
+      <c r="G181" s="18" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="182" ht="15" spans="1:7">
+      <c r="A182" s="18">
+        <v>174</v>
+      </c>
+      <c r="B182" s="18" t="s">
+        <v>365</v>
+      </c>
+      <c r="C182" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="D182" s="18">
+        <v>1</v>
+      </c>
+      <c r="E182" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="F182" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="G182" s="18"/>
+    </row>
+    <row r="183" ht="15" spans="1:7">
+      <c r="A183" s="18">
+        <v>175</v>
+      </c>
+      <c r="B183" s="18" t="s">
+        <v>366</v>
+      </c>
+      <c r="C183" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="D183" s="18">
+        <v>111111</v>
+      </c>
+      <c r="E183" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="F183" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="G183" s="18"/>
+    </row>
+    <row r="184" ht="15" spans="1:7">
+      <c r="A184" s="18" t="s">
+        <v>367</v>
+      </c>
+      <c r="B184" s="18" t="s">
+        <v>368</v>
+      </c>
+      <c r="C184" s="18" t="s">
+        <v>369</v>
+      </c>
+      <c r="D184" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="E184" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="F184" s="18"/>
+      <c r="G184" s="18"/>
+    </row>
   </sheetData>
   <mergeCells count="7">
     <mergeCell ref="A1:G1"/>
